--- a/linuxRunners/some results.xlsx
+++ b/linuxRunners/some results.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="480" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2580" yWindow="480" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01data" sheetId="2" r:id="rId1"/>
     <sheet name="02data" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
   <si>
     <t>LOOPS=40</t>
   </si>
@@ -77,6 +78,61 @@
   </si>
   <si>
     <t xml:space="preserve">		&lt;dimY value="2500" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> counter = 12</t>
+  </si>
+  <si>
+    <t>.48271833333333333333</t>
+  </si>
+  <si>
+    <t>.69680833333333333333</t>
+  </si>
+  <si>
+    <t>.01096083333333333333</t>
+  </si>
+  <si>
+    <t>.01975166666666666666</t>
+  </si>
+  <si>
+    <t>.04055000000000000000</t>
+  </si>
+  <si>
+    <t>.05369500000000000000</t>
+  </si>
+  <si>
+    <t>.35188166666666666666</t>
+  </si>
+  <si>
+    <t>.69531500000000000000</t>
+  </si>
+  <si>
+    <t>.41320000000000000000</t>
+  </si>
+  <si>
+    <t>.86178916666666666666</t>
+  </si>
+  <si>
+    <t>KingstonImprovedMobility; counter = 12
+KingstonImprovedMobility;1;.48271833333333333333
+KingstonImprovedMobility;2;.69680833333333333333
+KingstonImprovedMobility;4;1.70547166666666666666
+KingstonImprovedMobility;6;2.52105666666666666666
+RandomSafeMobility; counter = 12
+RandomSafeMobility;1;.01096083333333333333
+RandomSafeMobility;2;.01975166666666666666
+RandomSafeMobility;4;.04055000000000000000
+RandomSafeMobility;6;.05369500000000000000
+NaiveOrderedMobility; counter = 12
+NaiveOrderedMobility;1;.35188166666666666666
+NaiveOrderedMobility;2;.69531500000000000000
+NaiveOrderedMobility;4;1.42302750000000000000
+NaiveOrderedMobility;6;2.18513333333333333333
+TSPbasedMobility; counter = 12
+TSPbasedMobility;1;.41320000000000000000
+TSPbasedMobility;2;.86178916666666666666
+TSPbasedMobility;4;1.67788416666666666666
+TSPbasedMobility;6;2.94074833333333333333</t>
   </si>
 </sst>
 </file>
@@ -136,8 +192,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2021,7 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -2182,4 +2242,241 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C9:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.7054716666666598E+20</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.52105666666666E+20</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.4230275000000001E+20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.1851333333333298E+20</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.6778841666666601E+20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.94074833333333E+20</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="390">
+      <c r="C30" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/linuxRunners/some results.xlsx
+++ b/linuxRunners/some results.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="480" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2580" yWindow="480" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="01data" sheetId="2" r:id="rId1"/>
-    <sheet name="02data" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="01data-ok" sheetId="2" r:id="rId1"/>
+    <sheet name="02data-ok" sheetId="3" r:id="rId2"/>
+    <sheet name="03data-ok" sheetId="5" r:id="rId3"/>
+    <sheet name="04data-ok" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>LOOPS=40</t>
   </si>
@@ -62,84 +63,60 @@
     <t>defautla node size = 10</t>
   </si>
   <si>
-    <t xml:space="preserve">ROUNDS=1000000 </t>
+    <t xml:space="preserve">		&lt;dimX value="3000" /&gt;</t>
   </si>
   <si>
-    <t>REFRESHRATE=1000000</t>
+    <t xml:space="preserve">		&lt;dimY value="1250" /&gt;</t>
   </si>
   <si>
-    <t>28 para 29/0/2016</t>
+    <t>31/07/2016</t>
   </si>
   <si>
-    <t>LOOPS=5</t>
+    <t>LOOPS=3</t>
   </si>
   <si>
-    <t xml:space="preserve">		&lt;dimX value="6000" /&gt;</t>
+    <t>nUAV:  2 4 8 16</t>
   </si>
   <si>
-    <t xml:space="preserve">		&lt;dimY value="2500" /&gt;</t>
+    <t>POIs:  20</t>
   </si>
   <si>
-    <t xml:space="preserve"> counter = 12</t>
+    <t>X * Y ?</t>
   </si>
   <si>
-    <t>.48271833333333333333</t>
+    <t>ROUNDS=3750000</t>
   </si>
   <si>
-    <t>.69680833333333333333</t>
+    <t>REFRESHRATE=1</t>
   </si>
   <si>
-    <t>.01096083333333333333</t>
+    <t>LOOPS=10</t>
   </si>
   <si>
-    <t>.01975166666666666666</t>
+    <t>NotSoNaiveOrderedMobility</t>
   </si>
   <si>
-    <t>.04055000000000000000</t>
+    <t>TSPbased - NP-hard</t>
   </si>
   <si>
-    <t>.05369500000000000000</t>
+    <t>NotSoNaiveOrdered O(n2)</t>
   </si>
   <si>
-    <t>.35188166666666666666</t>
+    <t>NaiveOrdered     O(n log n)</t>
   </si>
   <si>
-    <t>.69531500000000000000</t>
-  </si>
-  <si>
-    <t>.41320000000000000000</t>
-  </si>
-  <si>
-    <t>.86178916666666666666</t>
-  </si>
-  <si>
-    <t>KingstonImprovedMobility; counter = 12
-KingstonImprovedMobility;1;.48271833333333333333
-KingstonImprovedMobility;2;.69680833333333333333
-KingstonImprovedMobility;4;1.70547166666666666666
-KingstonImprovedMobility;6;2.52105666666666666666
-RandomSafeMobility; counter = 12
-RandomSafeMobility;1;.01096083333333333333
-RandomSafeMobility;2;.01975166666666666666
-RandomSafeMobility;4;.04055000000000000000
-RandomSafeMobility;6;.05369500000000000000
-NaiveOrderedMobility; counter = 12
-NaiveOrderedMobility;1;.35188166666666666666
-NaiveOrderedMobility;2;.69531500000000000000
-NaiveOrderedMobility;4;1.42302750000000000000
-NaiveOrderedMobility;6;2.18513333333333333333
-TSPbasedMobility; counter = 12
-TSPbasedMobility;1;.41320000000000000000
-TSPbasedMobility;2;.86178916666666666666
-TSPbasedMobility;4;1.67788416666666666666
-TSPbasedMobility;6;2.94074833333333333333</t>
+    <t>KingstonImproved (Distribuído)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,6 +140,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,7 +165,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -191,23 +175,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -240,7 +265,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data'!$A$1</c:f>
+              <c:f>'01data-ok'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -254,7 +279,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data'!$B$17:$B$20</c:f>
+              <c:f>'01data-ok'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -275,7 +300,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data'!$C$1:$C$4</c:f>
+              <c:f>'01data-ok'!$C$1:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -301,7 +326,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data'!$A$7</c:f>
+              <c:f>'01data-ok'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -315,7 +340,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data'!$B$17:$B$20</c:f>
+              <c:f>'01data-ok'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -336,7 +361,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data'!$C$5:$C$8</c:f>
+              <c:f>'01data-ok'!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -362,7 +387,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data'!$A$10</c:f>
+              <c:f>'01data-ok'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -376,7 +401,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data'!$B$17:$B$20</c:f>
+              <c:f>'01data-ok'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -397,7 +422,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data'!$C$9:$C$12</c:f>
+              <c:f>'01data-ok'!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -423,7 +448,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data'!$A$14</c:f>
+              <c:f>'01data-ok'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -437,7 +462,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data'!$B$17:$B$20</c:f>
+              <c:f>'01data-ok'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -458,7 +483,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data'!$C$13:$C$16</c:f>
+              <c:f>'01data-ok'!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -484,7 +509,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data'!$A$18</c:f>
+              <c:f>'01data-ok'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -498,7 +523,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data'!$B$17:$B$20</c:f>
+              <c:f>'01data-ok'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -519,7 +544,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data'!$C$17:$C$20</c:f>
+              <c:f>'01data-ok'!$C$17:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -550,11 +575,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132354744"/>
-        <c:axId val="-2132399112"/>
+        <c:axId val="2079457864"/>
+        <c:axId val="2079454792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2132354744"/>
+        <c:axId val="2079457864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,7 +589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132399112"/>
+        <c:crossAx val="2079454792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -572,7 +597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132399112"/>
+        <c:axId val="2079454792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,7 +608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132354744"/>
+        <c:crossAx val="2079457864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -630,7 +655,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data'!$A$1</c:f>
+              <c:f>'01data-ok'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -644,7 +669,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data'!$B$17:$B$20</c:f>
+              <c:f>'01data-ok'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -665,7 +690,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data'!$C$1:$C$4</c:f>
+              <c:f>'01data-ok'!$C$1:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -691,7 +716,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data'!$A$10</c:f>
+              <c:f>'01data-ok'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -705,7 +730,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data'!$B$17:$B$20</c:f>
+              <c:f>'01data-ok'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -726,7 +751,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data'!$C$9:$C$12</c:f>
+              <c:f>'01data-ok'!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -752,7 +777,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data'!$A$14</c:f>
+              <c:f>'01data-ok'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -766,7 +791,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data'!$B$17:$B$20</c:f>
+              <c:f>'01data-ok'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -787,7 +812,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data'!$C$13:$C$16</c:f>
+              <c:f>'01data-ok'!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -818,11 +843,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132692280"/>
-        <c:axId val="-2132689224"/>
+        <c:axId val="2124790648"/>
+        <c:axId val="2124793624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2132692280"/>
+        <c:axId val="2124790648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,7 +857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132689224"/>
+        <c:crossAx val="2124793624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -840,7 +865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132689224"/>
+        <c:axId val="2124793624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,7 +876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132692280"/>
+        <c:crossAx val="2124790648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -898,7 +923,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data'!$A$1</c:f>
+              <c:f>'02data-ok'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -912,7 +937,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data'!$B$17:$B$20</c:f>
+              <c:f>'02data-ok'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -921,10 +946,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data'!$C$1:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>'02data-ok'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.12964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.26967333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.49184666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.6112833333333</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -935,11 +972,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data'!$A$7</c:f>
+              <c:f>'02data-ok'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RandomSafeMobility</c:v>
+                  <c:v>NaiveOrderedMobility</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -949,7 +986,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data'!$B$17:$B$20</c:f>
+              <c:f>'02data-ok'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -958,10 +995,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data'!$C$5:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>'02data-ok'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.41986333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.70500666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.3276666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.9068066666666</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -972,11 +1021,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data'!$A$10</c:f>
+              <c:f>'02data-ok'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NaiveOrderedMobility</c:v>
+                  <c:v>TSPbasedMobility</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -986,7 +1035,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data'!$B$17:$B$20</c:f>
+              <c:f>'02data-ok'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -995,10 +1044,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data'!$C$9:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>'02data-ok'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.73517666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.21281666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.4315366666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.9123366666666</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1009,12 +1070,9 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data'!$A$14</c:f>
+              <c:f>'02data-ok'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TSPbasedMobility</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1023,7 +1081,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data'!$B$17:$B$20</c:f>
+              <c:f>'02data-ok'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1032,7 +1090,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data'!$C$13:$C$16</c:f>
+              <c:f>'02data-ok'!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1046,12 +1104,9 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data'!$A$18</c:f>
+              <c:f>'02data-ok'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AntiTSPbasedMobility</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1060,7 +1115,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data'!$B$17:$B$20</c:f>
+              <c:f>'02data-ok'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1069,7 +1124,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data'!$C$17:$C$20</c:f>
+              <c:f>'02data-ok'!$C$17:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1088,11 +1143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2125139400"/>
-        <c:axId val="-2125136344"/>
+        <c:axId val="2126766488"/>
+        <c:axId val="2126769544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2125139400"/>
+        <c:axId val="2126766488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125136344"/>
+        <c:crossAx val="2126769544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1110,7 +1165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125136344"/>
+        <c:axId val="2126769544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,7 +1176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125139400"/>
+        <c:crossAx val="2126766488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1168,7 +1223,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data'!$A$1</c:f>
+              <c:f>'02data-ok'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1182,19 +1237,43 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data'!$B$17:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>'02data-ok'!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data'!$C$1:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>'02data-ok'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.12964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.26967333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.49184666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.6112833333333</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1205,11 +1284,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data'!$A$10</c:f>
+              <c:f>'02data-ok'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NaiveOrderedMobility</c:v>
+                  <c:v>TSPbasedMobility</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1219,19 +1298,43 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data'!$B$17:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>'02data-ok'!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data'!$C$9:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>'02data-ok'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.73517666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.21281666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.4315366666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.9123366666666</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1242,11 +1345,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data'!$A$14</c:f>
+              <c:f>'02data-ok'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TSPbasedMobility</c:v>
+                  <c:v>NaiveOrderedMobility</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1256,19 +1359,43 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data'!$B$17:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>'02data-ok'!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data'!$C$13:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+              <c:f>'02data-ok'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.41986333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.70500666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.3276666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.9068066666666</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1284,11 +1411,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2126191928"/>
-        <c:axId val="-2129938600"/>
+        <c:axId val="2126800664"/>
+        <c:axId val="2126803640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2126191928"/>
+        <c:axId val="2126800664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1425,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129938600"/>
+        <c:crossAx val="2126803640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1306,7 +1433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129938600"/>
+        <c:axId val="2126803640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,7 +1444,604 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126191928"/>
+        <c:crossAx val="2126800664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'03data-ok'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'03data-ok'!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'03data-ok'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.326367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.415144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.568044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.23651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'03data-ok'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'03data-ok'!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'03data-ok'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.558494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.218551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.108468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.444289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'03data-ok'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NotSoNaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'03data-ok'!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'03data-ok'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.131371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.47067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.624524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.825341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2140388328"/>
+        <c:axId val="2140955848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2140388328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2140955848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2140955848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2140388328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'04data-ok'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImproved (Distribuído)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'04data-ok'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'04data-ok'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.15042829268292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.83115121951219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.3326565853658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.3928780487804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'04data-ok'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSPbased - NP-hard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'04data-ok'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'04data-ok'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.615052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.897811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.823088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.028619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'04data-ok'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NotSoNaiveOrdered O(n2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'04data-ok'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'04data-ok'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.183175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.293619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.641666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.613135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'04data-ok'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NaiveOrdered     O(n log n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'04data-ok'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'04data-ok'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.247444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.693923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.535141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.742145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2126418408"/>
+        <c:axId val="-2126272568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2126418408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2126272568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2126272568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2126418408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1467,6 +2191,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2079,10 +2877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2092,144 +2890,189 @@
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3.1296400000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>6.2696733333333299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>8.4918466666666603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>24.611283333333301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3.4198633333333301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>6.7050066666666597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>14.3276666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>25.906806666666601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3.7351766666666602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>7.2128166666666598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>13.431536666666601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>27.912336666666601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2246,233 +3089,464 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:E30"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="3:5">
-      <c r="C9" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3.3263669999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6.4151439999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>12.568044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>28.236509999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.1313710000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.4706700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12.624523999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>23.825341000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3.558494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7.2185509999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>14.108468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4">
+        <v>29.444289000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.7054716666666598E+20</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2.52105666666666E+20</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.4230275000000001E+20</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2.1851333333333298E+20</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1.6778841666666601E+20</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2.94074833333333E+20</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="390">
-      <c r="C30" s="2" t="s">
-        <v>30</v>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3.1504282926829199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6.83115121951219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>12.3326565853658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>26.3928780487804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.1831749999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.2936189999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12.641666000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>25.613135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3.6150519999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6.8978109999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>13.823088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4">
+        <v>28.028618999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.247444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.6939229999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5.5351410000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10.742145000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/linuxRunners/some results.xlsx
+++ b/linuxRunners/some results.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="480" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2580" yWindow="480" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01data-ok" sheetId="2" r:id="rId1"/>
     <sheet name="02data-ok" sheetId="3" r:id="rId2"/>
     <sheet name="03data-ok" sheetId="5" r:id="rId3"/>
     <sheet name="04data-ok" sheetId="6" r:id="rId4"/>
+    <sheet name="05data-running" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="33">
   <si>
     <t>LOOPS=40</t>
   </si>
@@ -96,16 +97,31 @@
     <t>NotSoNaiveOrderedMobility</t>
   </si>
   <si>
-    <t>TSPbased - NP-hard</t>
+    <t>NotSoNaive O(n2)</t>
   </si>
   <si>
-    <t>NotSoNaiveOrdered O(n2)</t>
+    <t>TSPbased (NP-hard)</t>
   </si>
   <si>
-    <t>NaiveOrdered     O(n log n)</t>
+    <t>Naive O(n log n)</t>
   </si>
   <si>
-    <t>KingstonImproved (Distribuído)</t>
+    <t>KingstonImproved (Distribuído) + NotSoNaive</t>
+  </si>
+  <si>
+    <t>NotSoNaive + KingstonImproved (Distribuído)</t>
+  </si>
+  <si>
+    <t>Naive + KingstonImproved</t>
+  </si>
+  <si>
+    <t>LOOPS=30</t>
+  </si>
+  <si>
+    <t>POIs:  15</t>
+  </si>
+  <si>
+    <t>nUAV:  2 4 6 8</t>
   </si>
 </sst>
 </file>
@@ -165,8 +181,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -204,7 +242,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -219,6 +257,17 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -233,6 +282,17 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1763,7 +1823,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>KingstonImproved (Distribuído)</c:v>
+                  <c:v>KingstonImproved (Distribuído) + NotSoNaive</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1824,7 +1884,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TSPbased - NP-hard</c:v>
+                  <c:v>TSPbased (NP-hard)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1885,7 +1945,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NotSoNaiveOrdered O(n2)</c:v>
+                  <c:v>NotSoNaive O(n2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1946,7 +2006,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NaiveOrdered     O(n log n)</c:v>
+                  <c:v>Naive O(n log n)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2042,6 +2102,335 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="-2126418408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05data-running'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NotSoNaive + KingstonImproved (Distribuído)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05data-running'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05data-running'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.15042829268292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.83115121951219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.3326565853658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.3928780487804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05data-running'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSPbased (NP-hard)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05data-running'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05data-running'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.615052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.897811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.823088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.028619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05data-running'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NotSoNaive O(n2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05data-running'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05data-running'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.183175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.293619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.641666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.613135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05data-running'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naive O(n log n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05data-running'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05data-running'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.247444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.693923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.535141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.742145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2139107496"/>
+        <c:axId val="2140002680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2139107496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2140002680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2140002680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2139107496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2237,6 +2626,43 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3303,13 +3729,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="4.83203125" customWidth="1"/>
     <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -3360,7 +3784,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -3371,7 +3795,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -3382,7 +3806,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -3393,7 +3817,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>16</v>
@@ -3404,7 +3828,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -3415,7 +3839,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -3426,7 +3850,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -3437,7 +3861,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>16</v>
@@ -3541,6 +3965,294 @@
     <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3.1504282926829199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6.83115121951219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>12.3326565853658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>26.3928780487804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.1831749999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.2936189999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12.641666000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>25.613135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3.6150519999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6.8978109999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <v>13.823088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>28.028618999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.247444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.6939229999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5.5351410000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10.742145000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/linuxRunners/some results.xlsx
+++ b/linuxRunners/some results.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="2580" yWindow="480" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="01data-ok" sheetId="2" r:id="rId1"/>
-    <sheet name="02data-ok" sheetId="3" r:id="rId2"/>
-    <sheet name="03data-ok" sheetId="5" r:id="rId3"/>
-    <sheet name="04data-ok" sheetId="6" r:id="rId4"/>
+    <sheet name="01data-Alpha" sheetId="2" r:id="rId1"/>
+    <sheet name="02data-bad" sheetId="3" r:id="rId2"/>
+    <sheet name="03data-beta" sheetId="5" r:id="rId3"/>
+    <sheet name="04data-beta" sheetId="6" r:id="rId4"/>
     <sheet name="05data-running" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="34">
   <si>
     <t>LOOPS=40</t>
   </si>
@@ -109,19 +109,22 @@
     <t>KingstonImproved (Distribuído) + NotSoNaive</t>
   </si>
   <si>
-    <t>NotSoNaive + KingstonImproved (Distribuído)</t>
-  </si>
-  <si>
-    <t>Naive + KingstonImproved</t>
-  </si>
-  <si>
     <t>LOOPS=30</t>
   </si>
   <si>
-    <t>POIs:  15</t>
+    <t>ZigZagOverNSNMobility</t>
   </si>
   <si>
-    <t>nUAV:  2 4 6 8</t>
+    <t>ZigZagOverNaiveMobility</t>
+  </si>
+  <si>
+    <t>POIs:  30</t>
+  </si>
+  <si>
+    <t>30 é o minimo do minimo</t>
+  </si>
+  <si>
+    <t>Hard to run on TSP</t>
   </si>
 </sst>
 </file>
@@ -130,7 +133,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -181,7 +184,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -233,16 +236,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -268,6 +277,8 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -293,6 +304,8 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -325,7 +338,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data-ok'!$A$1</c:f>
+              <c:f>'01data-Alpha'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -339,7 +352,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data-ok'!$B$17:$B$20</c:f>
+              <c:f>'01data-Alpha'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -360,7 +373,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data-ok'!$C$1:$C$4</c:f>
+              <c:f>'01data-Alpha'!$C$1:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -386,7 +399,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data-ok'!$A$7</c:f>
+              <c:f>'01data-Alpha'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -400,7 +413,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data-ok'!$B$17:$B$20</c:f>
+              <c:f>'01data-Alpha'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -421,7 +434,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data-ok'!$C$5:$C$8</c:f>
+              <c:f>'01data-Alpha'!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -447,7 +460,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data-ok'!$A$10</c:f>
+              <c:f>'01data-Alpha'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -461,7 +474,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data-ok'!$B$17:$B$20</c:f>
+              <c:f>'01data-Alpha'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -482,7 +495,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data-ok'!$C$9:$C$12</c:f>
+              <c:f>'01data-Alpha'!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -508,7 +521,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data-ok'!$A$14</c:f>
+              <c:f>'01data-Alpha'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -522,7 +535,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data-ok'!$B$17:$B$20</c:f>
+              <c:f>'01data-Alpha'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -543,7 +556,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data-ok'!$C$13:$C$16</c:f>
+              <c:f>'01data-Alpha'!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -569,7 +582,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data-ok'!$A$18</c:f>
+              <c:f>'01data-Alpha'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -583,7 +596,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data-ok'!$B$17:$B$20</c:f>
+              <c:f>'01data-Alpha'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -604,7 +617,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data-ok'!$C$17:$C$20</c:f>
+              <c:f>'01data-Alpha'!$C$17:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -635,11 +648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2079457864"/>
-        <c:axId val="2079454792"/>
+        <c:axId val="2081307112"/>
+        <c:axId val="2081310168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2079457864"/>
+        <c:axId val="2081307112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,7 +662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079454792"/>
+        <c:crossAx val="2081310168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -657,7 +670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079454792"/>
+        <c:axId val="2081310168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,7 +681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079457864"/>
+        <c:crossAx val="2081307112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -715,7 +728,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data-ok'!$A$1</c:f>
+              <c:f>'01data-Alpha'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -729,7 +742,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data-ok'!$B$17:$B$20</c:f>
+              <c:f>'01data-Alpha'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -750,7 +763,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data-ok'!$C$1:$C$4</c:f>
+              <c:f>'01data-Alpha'!$C$1:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -776,7 +789,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data-ok'!$A$10</c:f>
+              <c:f>'01data-Alpha'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -790,7 +803,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data-ok'!$B$17:$B$20</c:f>
+              <c:f>'01data-Alpha'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -811,7 +824,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data-ok'!$C$9:$C$12</c:f>
+              <c:f>'01data-Alpha'!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -837,7 +850,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01data-ok'!$A$14</c:f>
+              <c:f>'01data-Alpha'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -851,7 +864,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'01data-ok'!$B$17:$B$20</c:f>
+              <c:f>'01data-Alpha'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -872,7 +885,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'01data-ok'!$C$13:$C$16</c:f>
+              <c:f>'01data-Alpha'!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -903,11 +916,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2124790648"/>
-        <c:axId val="2124793624"/>
+        <c:axId val="2081340200"/>
+        <c:axId val="2081343176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2124790648"/>
+        <c:axId val="2081340200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124793624"/>
+        <c:crossAx val="2081343176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -925,7 +938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124793624"/>
+        <c:axId val="2081343176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124790648"/>
+        <c:crossAx val="2081340200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -983,7 +996,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data-ok'!$A$1</c:f>
+              <c:f>'02data-bad'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -997,7 +1010,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data-ok'!$B$17:$B$20</c:f>
+              <c:f>'02data-bad'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1006,7 +1019,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data-ok'!$C$1:$C$4</c:f>
+              <c:f>'02data-bad'!$C$1:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1032,7 +1045,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data-ok'!$A$7</c:f>
+              <c:f>'02data-bad'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1046,7 +1059,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data-ok'!$B$17:$B$20</c:f>
+              <c:f>'02data-bad'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1055,7 +1068,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data-ok'!$C$5:$C$8</c:f>
+              <c:f>'02data-bad'!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1081,7 +1094,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data-ok'!$A$10</c:f>
+              <c:f>'02data-bad'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1095,7 +1108,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data-ok'!$B$17:$B$20</c:f>
+              <c:f>'02data-bad'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1104,7 +1117,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data-ok'!$C$9:$C$12</c:f>
+              <c:f>'02data-bad'!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1130,7 +1143,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data-ok'!$A$14</c:f>
+              <c:f>'02data-bad'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1141,7 +1154,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data-ok'!$B$17:$B$20</c:f>
+              <c:f>'02data-bad'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1150,7 +1163,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data-ok'!$C$13:$C$16</c:f>
+              <c:f>'02data-bad'!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1164,7 +1177,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data-ok'!$A$18</c:f>
+              <c:f>'02data-bad'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1175,7 +1188,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data-ok'!$B$17:$B$20</c:f>
+              <c:f>'02data-bad'!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1184,7 +1197,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data-ok'!$C$17:$C$20</c:f>
+              <c:f>'02data-bad'!$C$17:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1203,11 +1216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126766488"/>
-        <c:axId val="2126769544"/>
+        <c:axId val="2081390728"/>
+        <c:axId val="2081393784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126766488"/>
+        <c:axId val="2081390728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,7 +1230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126769544"/>
+        <c:crossAx val="2081393784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1225,7 +1238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126769544"/>
+        <c:axId val="2081393784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,7 +1249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126766488"/>
+        <c:crossAx val="2081390728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1283,7 +1296,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data-ok'!$A$1</c:f>
+              <c:f>'02data-bad'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1297,7 +1310,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data-ok'!$B$5:$B$8</c:f>
+              <c:f>'02data-bad'!$B$5:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1318,7 +1331,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data-ok'!$C$1:$C$4</c:f>
+              <c:f>'02data-bad'!$C$1:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1344,7 +1357,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data-ok'!$A$10</c:f>
+              <c:f>'02data-bad'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1358,7 +1371,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data-ok'!$B$5:$B$8</c:f>
+              <c:f>'02data-bad'!$B$5:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1379,7 +1392,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data-ok'!$C$9:$C$12</c:f>
+              <c:f>'02data-bad'!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1405,7 +1418,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02data-ok'!$A$5</c:f>
+              <c:f>'02data-bad'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1419,7 +1432,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'02data-ok'!$B$5:$B$8</c:f>
+              <c:f>'02data-bad'!$B$5:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1440,7 +1453,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02data-ok'!$C$5:$C$8</c:f>
+              <c:f>'02data-bad'!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1471,11 +1484,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126800664"/>
-        <c:axId val="2126803640"/>
+        <c:axId val="2080675272"/>
+        <c:axId val="2080672280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126800664"/>
+        <c:axId val="2080675272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +1498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126803640"/>
+        <c:crossAx val="2080672280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1493,7 +1506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126803640"/>
+        <c:axId val="2080672280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,7 +1517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126800664"/>
+        <c:crossAx val="2080675272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1551,7 +1564,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'03data-ok'!$A$1</c:f>
+              <c:f>'03data-beta'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1565,7 +1578,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'03data-ok'!$B$5:$B$8</c:f>
+              <c:f>'03data-beta'!$B$5:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1586,7 +1599,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'03data-ok'!$C$1:$C$4</c:f>
+              <c:f>'03data-beta'!$C$1:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1612,7 +1625,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'03data-ok'!$A$10</c:f>
+              <c:f>'03data-beta'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1626,7 +1639,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'03data-ok'!$B$5:$B$8</c:f>
+              <c:f>'03data-beta'!$B$5:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1647,7 +1660,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'03data-ok'!$C$9:$C$12</c:f>
+              <c:f>'03data-beta'!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1673,7 +1686,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'03data-ok'!$A$5</c:f>
+              <c:f>'03data-beta'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1687,7 +1700,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'03data-ok'!$B$5:$B$8</c:f>
+              <c:f>'03data-beta'!$B$5:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1708,7 +1721,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'03data-ok'!$C$5:$C$8</c:f>
+              <c:f>'03data-beta'!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1739,11 +1752,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2140388328"/>
-        <c:axId val="2140955848"/>
+        <c:axId val="2082599560"/>
+        <c:axId val="2083695352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2140388328"/>
+        <c:axId val="2082599560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140955848"/>
+        <c:crossAx val="2083695352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1761,7 +1774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140955848"/>
+        <c:axId val="2083695352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1772,7 +1785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140388328"/>
+        <c:crossAx val="2082599560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1819,7 +1832,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'04data-ok'!$A$1</c:f>
+              <c:f>'04data-beta'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1833,7 +1846,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'04data-ok'!$B$13:$B$16</c:f>
+              <c:f>'04data-beta'!$B$13:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1854,7 +1867,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'04data-ok'!$C$1:$C$4</c:f>
+              <c:f>'04data-beta'!$C$1:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1880,7 +1893,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'04data-ok'!$A$10</c:f>
+              <c:f>'04data-beta'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1894,7 +1907,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'04data-ok'!$B$13:$B$16</c:f>
+              <c:f>'04data-beta'!$B$13:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1915,7 +1928,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'04data-ok'!$C$9:$C$12</c:f>
+              <c:f>'04data-beta'!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1941,7 +1954,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'04data-ok'!$A$5</c:f>
+              <c:f>'04data-beta'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1955,7 +1968,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'04data-ok'!$B$13:$B$16</c:f>
+              <c:f>'04data-beta'!$B$13:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1976,7 +1989,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'04data-ok'!$C$5:$C$8</c:f>
+              <c:f>'04data-beta'!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2002,7 +2015,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'04data-ok'!$A$15</c:f>
+              <c:f>'04data-beta'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2016,7 +2029,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'04data-ok'!$B$13:$B$16</c:f>
+              <c:f>'04data-beta'!$B$13:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2037,7 +2050,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'04data-ok'!$C$13:$C$16</c:f>
+              <c:f>'04data-beta'!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2068,11 +2081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2126418408"/>
-        <c:axId val="-2126272568"/>
+        <c:axId val="2083927752"/>
+        <c:axId val="2083688360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2126418408"/>
+        <c:axId val="2083927752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2082,7 +2095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126272568"/>
+        <c:crossAx val="2083688360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2090,7 +2103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126272568"/>
+        <c:axId val="2083688360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126418408"/>
+        <c:crossAx val="2083927752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2152,7 +2165,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NotSoNaive + KingstonImproved (Distribuído)</c:v>
+                  <c:v>ZigZagOverNSNMobility</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2162,7 +2175,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'05data-running'!$B$13:$B$16</c:f>
+              <c:f>'05data-running'!$B$5:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2173,10 +2186,10 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2188,16 +2201,16 @@
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.15042829268292</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.83115121951219</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.3326565853658</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.3928780487804</c:v>
+                  <c:v>2.65182333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.20932966666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.9378753333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.2775763333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2213,7 +2226,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TSPbased (NP-hard)</c:v>
+                  <c:v>NotSoNaiveOrderedMobility</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2223,7 +2236,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'05data-running'!$B$13:$B$16</c:f>
+              <c:f>'05data-running'!$B$5:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2234,10 +2247,10 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,16 +2262,16 @@
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.615052</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.897811</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.823088</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.028619</c:v>
+                  <c:v>2.65275733333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.25548333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.7142513333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.4016293333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2274,7 +2287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NotSoNaive O(n2)</c:v>
+                  <c:v>NaiveOrderedMobility</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2284,7 +2297,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'05data-running'!$B$13:$B$16</c:f>
+              <c:f>'05data-running'!$B$5:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2295,10 +2308,10 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,16 +2323,16 @@
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.183175</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.293619</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.641666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.613135</c:v>
+                  <c:v>0.963531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.876943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.67018033333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.47626866666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2335,7 +2348,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive O(n log n)</c:v>
+                  <c:v>ZigZagOverNaiveMobility</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2345,7 +2358,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'05data-running'!$B$13:$B$16</c:f>
+              <c:f>'05data-running'!$B$5:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2356,10 +2369,10 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2371,16 +2384,16 @@
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.247444</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.693923</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.535141</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.742145</c:v>
+                  <c:v>0.914449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.84290433333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.45466766666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.77658733333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,11 +2410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2139107496"/>
-        <c:axId val="2140002680"/>
+        <c:axId val="2084187336"/>
+        <c:axId val="2082577384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139107496"/>
+        <c:axId val="2084187336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,7 +2424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140002680"/>
+        <c:crossAx val="2082577384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2419,7 +2432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140002680"/>
+        <c:axId val="2082577384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,7 +2443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139107496"/>
+        <c:crossAx val="2084187336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2667,15 +2680,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3981,10 +3994,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3992,267 +4005,235 @@
     <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="4.83203125" customWidth="1"/>
     <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>2</v>
       </c>
       <c r="C1" s="4">
-        <v>3.1504282926829199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>2.6518233333333301</v>
+      </c>
+      <c r="E1" s="7">
+        <v>42529</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>6.83115121951219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5.20932966666666</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4">
-        <v>12.3326565853658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>10.937875333333301</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4">
-        <v>26.3928780487804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>32.2775763333333</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>3.1831749999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.96353100000000003</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>6.2936189999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>1.876943</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4">
-        <v>12.641666000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>3.67018033333333</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4">
-        <v>25.613135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>7.4762686666666598</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="4">
-        <v>3.6150519999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>2.6527573333333301</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" s="4">
-        <v>6.8978109999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>5.2554833333333297</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4">
-        <v>13.823088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>10.7142513333333</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4">
-        <v>28.028618999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>21.4016293333333</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="4">
-        <v>1.247444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.91444899999999996</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" s="4">
-        <v>2.6939229999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>1.8429043333333299</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4">
-        <v>5.5351410000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>3.4546676666666598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>10.742145000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>32</v>
+        <v>7.77658733333333</v>
       </c>
     </row>
   </sheetData>

--- a/linuxRunners/some results.xlsx
+++ b/linuxRunners/some results.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="480" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="680" yWindow="0" windowWidth="36020" windowHeight="19520" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01data-Alpha" sheetId="2" r:id="rId1"/>
     <sheet name="02data-bad" sheetId="3" r:id="rId2"/>
     <sheet name="03data-beta" sheetId="5" r:id="rId3"/>
     <sheet name="04data-beta" sheetId="6" r:id="rId4"/>
-    <sheet name="05data-running" sheetId="7" r:id="rId5"/>
+    <sheet name="05Todos-25-erroColeta" sheetId="7" r:id="rId5"/>
+    <sheet name="05Todos-25-running" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="35">
   <si>
     <t>LOOPS=40</t>
   </si>
@@ -118,13 +119,16 @@
     <t>ZigZagOverNaiveMobility</t>
   </si>
   <si>
-    <t>POIs:  30</t>
-  </si>
-  <si>
     <t>30 é o minimo do minimo</t>
   </si>
   <si>
-    <t>Hard to run on TSP</t>
+    <t>POIs:  25</t>
+  </si>
+  <si>
+    <t>KingstonImprovedOverNaiveMobility</t>
+  </si>
+  <si>
+    <t>KingstonImprovedOverNSNMobility</t>
   </si>
 </sst>
 </file>
@@ -648,11 +652,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2081307112"/>
-        <c:axId val="2081310168"/>
+        <c:axId val="2143662152"/>
+        <c:axId val="2143665208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2081307112"/>
+        <c:axId val="2143662152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081310168"/>
+        <c:crossAx val="2143665208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -670,7 +674,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081310168"/>
+        <c:axId val="2143665208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,14 +685,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081307112"/>
+        <c:crossAx val="2143662152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -916,11 +919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2081340200"/>
-        <c:axId val="2081343176"/>
+        <c:axId val="2143727960"/>
+        <c:axId val="2143730936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2081340200"/>
+        <c:axId val="2143727960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081343176"/>
+        <c:crossAx val="2143730936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -938,7 +941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081343176"/>
+        <c:axId val="2143730936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,14 +952,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081340200"/>
+        <c:crossAx val="2143727960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1216,11 +1218,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2081390728"/>
-        <c:axId val="2081393784"/>
+        <c:axId val="2143778584"/>
+        <c:axId val="2143781640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2081390728"/>
+        <c:axId val="2143778584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,7 +1232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081393784"/>
+        <c:crossAx val="2143781640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1238,7 +1240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081393784"/>
+        <c:axId val="2143781640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,14 +1251,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081390728"/>
+        <c:crossAx val="2143778584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1484,11 +1485,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2080675272"/>
-        <c:axId val="2080672280"/>
+        <c:axId val="2143812856"/>
+        <c:axId val="2143815832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2080675272"/>
+        <c:axId val="2143812856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080672280"/>
+        <c:crossAx val="2143815832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1506,7 +1507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080672280"/>
+        <c:axId val="2143815832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,14 +1518,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080675272"/>
+        <c:crossAx val="2143812856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1752,11 +1752,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2082599560"/>
-        <c:axId val="2083695352"/>
+        <c:axId val="2143855144"/>
+        <c:axId val="2143858184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2082599560"/>
+        <c:axId val="2143855144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,7 +1766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083695352"/>
+        <c:crossAx val="2143858184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1774,7 +1774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083695352"/>
+        <c:axId val="2143858184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1785,14 +1785,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082599560"/>
+        <c:crossAx val="2143855144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2081,11 +2080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2083927752"/>
-        <c:axId val="2083688360"/>
+        <c:axId val="2141027400"/>
+        <c:axId val="2141030584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083927752"/>
+        <c:axId val="2141027400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,7 +2094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083688360"/>
+        <c:crossAx val="2141030584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2103,7 +2102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083688360"/>
+        <c:axId val="2141030584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2114,14 +2113,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083927752"/>
+        <c:crossAx val="2141027400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2161,7 +2159,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'05data-running'!$A$1</c:f>
+              <c:f>'05Todos-25-erroColeta'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2175,7 +2173,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'05data-running'!$B$5:$B$8</c:f>
+              <c:f>'05Todos-25-erroColeta'!$B$21:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2196,21 +2194,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'05data-running'!$C$1:$C$4</c:f>
+              <c:f>'05Todos-25-erroColeta'!$C$1:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.65182333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.20932966666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.9378753333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.2775763333333</c:v>
+                  <c:v>14.3111690434782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.202184347826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.5967245217391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246.752115130434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,7 +2220,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'05data-running'!$A$10</c:f>
+              <c:f>'05Todos-25-erroColeta'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2236,7 +2234,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'05data-running'!$B$5:$B$8</c:f>
+              <c:f>'05Todos-25-erroColeta'!$B$21:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2257,21 +2255,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'05data-running'!$C$9:$C$12</c:f>
+              <c:f>'05Todos-25-erroColeta'!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.65275733333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.25548333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.7142513333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.4016293333333</c:v>
+                  <c:v>12.4384906896551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.2370734482758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.3034048275862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.81574413793101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,7 +2281,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'05data-running'!$A$5</c:f>
+              <c:f>'05Todos-25-erroColeta'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2297,7 +2295,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'05data-running'!$B$5:$B$8</c:f>
+              <c:f>'05Todos-25-erroColeta'!$B$21:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2318,21 +2316,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'05data-running'!$C$5:$C$8</c:f>
+              <c:f>'05Todos-25-erroColeta'!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.963531</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.876943</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.67018033333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.47626866666666</c:v>
+                  <c:v>6.02996206896551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.1768427586206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.8780196551724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.4848903448275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2344,7 +2342,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'05data-running'!$A$15</c:f>
+              <c:f>'05Todos-25-erroColeta'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2358,7 +2356,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'05data-running'!$B$5:$B$8</c:f>
+              <c:f>'05Todos-25-erroColeta'!$B$21:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2379,21 +2377,143 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'05data-running'!$C$13:$C$16</c:f>
+              <c:f>'05Todos-25-erroColeta'!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.914449</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.84290433333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.45466766666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.77658733333333</c:v>
+                  <c:v>7.99479929203539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.8155982300884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.0805929203539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.5073465486725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05Todos-25-erroColeta'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNaiveMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05Todos-25-erroColeta'!$B$21:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05Todos-25-erroColeta'!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.13002433333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.17416866666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.45380166666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.799508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05Todos-25-erroColeta'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05Todos-25-erroColeta'!$B$21:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05Todos-25-erroColeta'!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.40142533333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.41014033333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.6985676666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.1910646666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2410,11 +2530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2084187336"/>
-        <c:axId val="2082577384"/>
+        <c:axId val="2141076312"/>
+        <c:axId val="2141079496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2084187336"/>
+        <c:axId val="2141076312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,7 +2544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082577384"/>
+        <c:crossAx val="2141079496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2432,7 +2552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082577384"/>
+        <c:axId val="2141079496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,7 +2563,458 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084187336"/>
+        <c:crossAx val="2141076312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05Todos-25-running'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZigZagOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05Todos-25-running'!$B$21:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05Todos-25-running'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.35796166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.43690666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.276859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.4725023333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05Todos-25-running'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NotSoNaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05Todos-25-running'!$B$21:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05Todos-25-running'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.927914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.648262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.77422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.6182116666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05Todos-25-running'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05Todos-25-running'!$B$21:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05Todos-25-running'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.07737633333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.20958933333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.287052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.09048866666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05Todos-25-running'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZigZagOverNaiveMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05Todos-25-running'!$B$21:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05Todos-25-running'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.082988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.22913466666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.392858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.82334366666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05Todos-25-running'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNaiveMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05Todos-25-running'!$B$21:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05Todos-25-running'!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.069415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.30083233333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.585063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.608298666666659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05Todos-25-running'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05Todos-25-running'!$B$21:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05Todos-25-running'!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.388118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.19355566666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.9538006666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.3582083333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2145537432"/>
+        <c:axId val="2145534216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2145537432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2145534216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2145534216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2145537432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2685,10 +3256,47 @@
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3994,10 +4602,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4018,10 +4626,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4">
-        <v>2.6518233333333301</v>
+        <v>14.3111690434782</v>
       </c>
       <c r="E1" s="7">
-        <v>42529</v>
+        <v>42621</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -4033,13 +4641,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>5.20932966666666</v>
+        <v>21.202184347826002</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4050,7 +4658,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="4">
-        <v>10.937875333333301</v>
+        <v>79.596724521739105</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -4067,7 +4675,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="4">
-        <v>32.2775763333333</v>
+        <v>246.75211513043399</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -4082,7 +4690,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>0.96353100000000003</v>
+        <v>6.02996206896551</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -4094,7 +4702,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>1.876943</v>
+        <v>12.1768427586206</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -4109,7 +4717,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="4">
-        <v>3.67018033333333</v>
+        <v>24.878019655172402</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -4124,7 +4732,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="4">
-        <v>7.4762686666666598</v>
+        <v>49.484890344827498</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -4136,7 +4744,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="4">
-        <v>2.6527573333333301</v>
+        <v>12.438490689655101</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -4151,7 +4759,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="4">
-        <v>5.2554833333333297</v>
+        <v>25.237073448275801</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -4166,7 +4774,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="4">
-        <v>10.7142513333333</v>
+        <v>49.303404827586199</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -4178,7 +4786,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="4">
-        <v>21.4016293333333</v>
+        <v>98.815744137931006</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -4190,14 +4798,12 @@
         <v>2</v>
       </c>
       <c r="C13" s="4">
-        <v>0.91444899999999996</v>
+        <v>7.9947992920353901</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -4207,7 +4813,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="4">
-        <v>1.8429043333333299</v>
+        <v>14.815598230088399</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -4222,7 +4828,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="4">
-        <v>3.4546676666666598</v>
+        <v>29.080592920353901</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4233,7 +4839,437 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>7.77658733333333</v>
+        <v>48.507346548672501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.13002433333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.17416866666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.45380166666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4">
+        <v>8.7995079999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3.40142533333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>6.41014033333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>12.6985676666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4">
+        <v>25.191064666666598</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3.3579616666666601</v>
+      </c>
+      <c r="E1" s="7">
+        <v>42621</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6.4369066666666601</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>13.276859</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>25.472502333333299</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.0773763333333299</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.2095893333333301</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.2870520000000001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.0904886666666602</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.9279139999999999</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5.6482619999999999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>11.77422</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4">
+        <v>22.6182116666666</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.0829880000000001</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.2291346666666598</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4.3928580000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4">
+        <v>8.8233436666666591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.069415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.30083233333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.5850629999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9.6082986666666592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3.388118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>6.1935556666666596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>11.9538006666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4">
+        <v>25.358208333333302</v>
       </c>
     </row>
   </sheetData>

--- a/linuxRunners/some results.xlsx
+++ b/linuxRunners/some results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="0" windowWidth="36020" windowHeight="19520" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="680" yWindow="0" windowWidth="27220" windowHeight="19620" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01data-Alpha" sheetId="2" r:id="rId1"/>
@@ -188,8 +188,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -255,7 +287,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -283,6 +315,22 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -310,6 +358,22 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -652,11 +716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143662152"/>
-        <c:axId val="2143665208"/>
+        <c:axId val="-2124981864"/>
+        <c:axId val="-2124978760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143662152"/>
+        <c:axId val="-2124981864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143665208"/>
+        <c:crossAx val="-2124978760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -674,7 +738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143665208"/>
+        <c:axId val="-2124978760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,7 +749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143662152"/>
+        <c:crossAx val="-2124981864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -919,11 +983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143727960"/>
-        <c:axId val="2143730936"/>
+        <c:axId val="-2124902104"/>
+        <c:axId val="-2124899128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143727960"/>
+        <c:axId val="-2124902104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,7 +997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143730936"/>
+        <c:crossAx val="-2124899128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -941,7 +1005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143730936"/>
+        <c:axId val="-2124899128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +1016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143727960"/>
+        <c:crossAx val="-2124902104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1218,11 +1282,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143778584"/>
-        <c:axId val="2143781640"/>
+        <c:axId val="-2124848008"/>
+        <c:axId val="-2124844952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143778584"/>
+        <c:axId val="-2124848008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,7 +1296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143781640"/>
+        <c:crossAx val="-2124844952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1240,7 +1304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143781640"/>
+        <c:axId val="-2124844952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +1315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143778584"/>
+        <c:crossAx val="-2124848008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1485,11 +1549,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143812856"/>
-        <c:axId val="2143815832"/>
+        <c:axId val="-2124814072"/>
+        <c:axId val="-2124811096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143812856"/>
+        <c:axId val="-2124814072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143815832"/>
+        <c:crossAx val="-2124811096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143815832"/>
+        <c:axId val="-2124811096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,7 +1582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143812856"/>
+        <c:crossAx val="-2124814072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1752,11 +1816,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143855144"/>
-        <c:axId val="2143858184"/>
+        <c:axId val="-2124771448"/>
+        <c:axId val="-2124768408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143855144"/>
+        <c:axId val="-2124771448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,7 +1830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143858184"/>
+        <c:crossAx val="-2124768408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1774,7 +1838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143858184"/>
+        <c:axId val="-2124768408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1785,7 +1849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143855144"/>
+        <c:crossAx val="-2124771448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2080,11 +2144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2141027400"/>
-        <c:axId val="2141030584"/>
+        <c:axId val="-2124723400"/>
+        <c:axId val="-2124720216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2141027400"/>
+        <c:axId val="-2124723400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,7 +2158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141030584"/>
+        <c:crossAx val="-2124720216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2102,7 +2166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141030584"/>
+        <c:axId val="-2124720216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2113,7 +2177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141027400"/>
+        <c:crossAx val="-2124723400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2530,11 +2594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2141076312"/>
-        <c:axId val="2141079496"/>
+        <c:axId val="-2124665240"/>
+        <c:axId val="-2124662040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2141076312"/>
+        <c:axId val="-2124665240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2544,7 +2608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141079496"/>
+        <c:crossAx val="-2124662040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2552,7 +2616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141079496"/>
+        <c:axId val="-2124662040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2563,14 +2627,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141076312"/>
+        <c:crossAx val="-2124665240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2981,11 +3044,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2145537432"/>
-        <c:axId val="2145534216"/>
+        <c:axId val="-2126331464"/>
+        <c:axId val="-2126328264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2145537432"/>
+        <c:axId val="-2126331464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,7 +3058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145534216"/>
+        <c:crossAx val="-2126328264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3003,7 +3066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145534216"/>
+        <c:axId val="-2126328264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,7 +3077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145537432"/>
+        <c:crossAx val="-2126331464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4946,8 +5009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/linuxRunners/some results.xlsx
+++ b/linuxRunners/some results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="0" windowWidth="27220" windowHeight="19620" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="680" yWindow="0" windowWidth="33440" windowHeight="19540" tabRatio="757" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="01data-Alpha" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="03data-beta" sheetId="5" r:id="rId3"/>
     <sheet name="04data-beta" sheetId="6" r:id="rId4"/>
     <sheet name="05Todos-25-erroColeta" sheetId="7" r:id="rId5"/>
-    <sheet name="05Todos-25-running" sheetId="8" r:id="rId6"/>
+    <sheet name="05Todos-25-duvida" sheetId="8" r:id="rId6"/>
+    <sheet name="06-20-running" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="47">
   <si>
     <t>LOOPS=40</t>
   </si>
@@ -130,6 +131,42 @@
   <si>
     <t>KingstonImprovedOverNSNMobility</t>
   </si>
+  <si>
+    <t>Só 10 rodadas ao inves de 30 e limite de 900 segundos</t>
+  </si>
+  <si>
+    <t>ACHO QUE DEU ERRO NO TSP</t>
+  </si>
+  <si>
+    <t>MAQUINA</t>
+  </si>
+  <si>
+    <t>MISTURADA</t>
+  </si>
+  <si>
+    <t>mandei rodar 10 depois rodo mais 20</t>
+  </si>
+  <si>
+    <t>ROUNDS=7500000</t>
+  </si>
+  <si>
+    <t>REFRESHRATE=7500000</t>
+  </si>
+  <si>
+    <t>dobrei</t>
+  </si>
+  <si>
+    <t>simplifiquei</t>
+  </si>
+  <si>
+    <t>tudo no LAC</t>
+  </si>
+  <si>
+    <t>diminui</t>
+  </si>
+  <si>
+    <t>LOOPS=5</t>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +176,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,6 +205,44 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -277,7 +352,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -286,6 +361,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -716,11 +798,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124981864"/>
-        <c:axId val="-2124978760"/>
+        <c:axId val="2134140200"/>
+        <c:axId val="2134137128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2124981864"/>
+        <c:axId val="2134140200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124978760"/>
+        <c:crossAx val="2134137128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -738,7 +820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124978760"/>
+        <c:axId val="2134137128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,7 +831,970 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124981864"/>
+        <c:crossAx val="2134140200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'06-20-running'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZigZagOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'06-20-running'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.35796166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.43690666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.276859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.4725023333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'06-20-running'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NotSoNaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'06-20-running'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.927914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.648262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.77422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.6182116666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'06-20-running'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'06-20-running'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.07737633333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.20958933333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.287052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.09048866666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'06-20-running'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZigZagOverNaiveMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'06-20-running'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.082988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.22913466666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.392858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.82334366666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'06-20-running'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNaiveMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'06-20-running'!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.069415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.30083233333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.585063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.608298666666659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'06-20-running'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'06-20-running'!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.388118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.19355566666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.9538006666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.3582083333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'06-20-running'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'06-20-running'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.24429533333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.506488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.4277993333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.1466703333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'06-20-running'!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AntiTSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'06-20-running'!$C$29:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.897711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.053749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.271979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.771024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2129817928"/>
+        <c:axId val="2129978424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2129817928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2129978424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2129978424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2129817928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'06-20-running'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZigZagOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'06-20-running'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.35796166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.43690666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.276859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.4725023333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'06-20-running'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NotSoNaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'06-20-running'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.927914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.648262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.77422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.6182116666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'06-20-running'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'06-20-running'!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.388118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.19355566666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.9538006666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.3582083333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'06-20-running'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'06-20-running'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.24429533333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.506488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.4277993333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.1466703333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'06-20-running'!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AntiTSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'06-20-running'!$C$29:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.897711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.053749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.271979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.771024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2143190152"/>
+        <c:axId val="2143122968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2143190152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2143122968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2143122968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2143190152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -983,11 +2028,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124902104"/>
-        <c:axId val="-2124899128"/>
+        <c:axId val="2134074392"/>
+        <c:axId val="2134071400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2124902104"/>
+        <c:axId val="2134074392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +2042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124899128"/>
+        <c:crossAx val="2134071400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1005,7 +2050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124899128"/>
+        <c:axId val="2134071400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,13 +2061,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124902104"/>
+        <c:crossAx val="2134074392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1282,11 +2328,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124848008"/>
-        <c:axId val="-2124844952"/>
+        <c:axId val="2134023928"/>
+        <c:axId val="2134020856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2124848008"/>
+        <c:axId val="2134023928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +2342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124844952"/>
+        <c:crossAx val="2134020856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1304,7 +2350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124844952"/>
+        <c:axId val="2134020856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,13 +2361,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124848008"/>
+        <c:crossAx val="2134023928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1549,11 +2596,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124814072"/>
-        <c:axId val="-2124811096"/>
+        <c:axId val="2133989992"/>
+        <c:axId val="2133987000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2124814072"/>
+        <c:axId val="2133989992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,7 +2610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124811096"/>
+        <c:crossAx val="2133987000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1571,7 +2618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124811096"/>
+        <c:axId val="2133987000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,13 +2629,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124814072"/>
+        <c:crossAx val="2133989992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1816,11 +2864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124771448"/>
-        <c:axId val="-2124768408"/>
+        <c:axId val="2133947368"/>
+        <c:axId val="2133944312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2124771448"/>
+        <c:axId val="2133947368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,7 +2878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124768408"/>
+        <c:crossAx val="2133944312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1838,7 +2886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124768408"/>
+        <c:axId val="2133944312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,13 +2897,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124771448"/>
+        <c:crossAx val="2133947368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2144,11 +3193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124723400"/>
-        <c:axId val="-2124720216"/>
+        <c:axId val="2133899320"/>
+        <c:axId val="2133896120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2124723400"/>
+        <c:axId val="2133899320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,7 +3207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124720216"/>
+        <c:crossAx val="2133896120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2166,7 +3215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124720216"/>
+        <c:axId val="2133896120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,13 +3226,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124723400"/>
+        <c:crossAx val="2133899320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2594,11 +3644,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124665240"/>
-        <c:axId val="-2124662040"/>
+        <c:axId val="2135232408"/>
+        <c:axId val="2135235608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2124665240"/>
+        <c:axId val="2135232408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,7 +3658,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124662040"/>
+        <c:crossAx val="2135235608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2616,7 +3666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124662040"/>
+        <c:axId val="2135235608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2627,13 +3677,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124665240"/>
+        <c:crossAx val="2135232408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2673,7 +3724,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'05Todos-25-running'!$A$1</c:f>
+              <c:f>'05Todos-25-duvida'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2687,7 +3738,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'05Todos-25-running'!$B$21:$B$24</c:f>
+              <c:f>'05Todos-25-duvida'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2708,7 +3759,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'05Todos-25-running'!$C$1:$C$4</c:f>
+              <c:f>'05Todos-25-duvida'!$C$1:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2734,7 +3785,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'05Todos-25-running'!$A$10</c:f>
+              <c:f>'05Todos-25-duvida'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2748,7 +3799,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'05Todos-25-running'!$B$21:$B$24</c:f>
+              <c:f>'05Todos-25-duvida'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2769,7 +3820,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'05Todos-25-running'!$C$9:$C$12</c:f>
+              <c:f>'05Todos-25-duvida'!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2795,7 +3846,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'05Todos-25-running'!$A$5</c:f>
+              <c:f>'05Todos-25-duvida'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2809,7 +3860,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'05Todos-25-running'!$B$21:$B$24</c:f>
+              <c:f>'05Todos-25-duvida'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2830,7 +3881,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'05Todos-25-running'!$C$5:$C$8</c:f>
+              <c:f>'05Todos-25-duvida'!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2856,7 +3907,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'05Todos-25-running'!$A$15</c:f>
+              <c:f>'05Todos-25-duvida'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2870,7 +3921,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'05Todos-25-running'!$B$21:$B$24</c:f>
+              <c:f>'05Todos-25-duvida'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2891,7 +3942,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'05Todos-25-running'!$C$13:$C$16</c:f>
+              <c:f>'05Todos-25-duvida'!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2917,7 +3968,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'05Todos-25-running'!$A$17</c:f>
+              <c:f>'05Todos-25-duvida'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2931,7 +3982,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'05Todos-25-running'!$B$21:$B$24</c:f>
+              <c:f>'05Todos-25-duvida'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2952,7 +4003,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'05Todos-25-running'!$C$17:$C$20</c:f>
+              <c:f>'05Todos-25-duvida'!$C$17:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2978,7 +4029,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'05Todos-25-running'!$A$21</c:f>
+              <c:f>'05Todos-25-duvida'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2992,7 +4043,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'05Todos-25-running'!$B$21:$B$24</c:f>
+              <c:f>'05Todos-25-duvida'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3013,7 +4064,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'05Todos-25-running'!$C$21:$C$24</c:f>
+              <c:f>'05Todos-25-duvida'!$C$21:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3028,6 +4079,128 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25.3582083333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05Todos-25-duvida'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05Todos-25-duvida'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05Todos-25-duvida'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.24429533333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.506488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.4277993333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.1466703333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05Todos-25-duvida'!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AntiTSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05Todos-25-duvida'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05Todos-25-duvida'!$C$29:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.897711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.053749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.271979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.771024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3044,11 +4217,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2126331464"/>
-        <c:axId val="-2126328264"/>
+        <c:axId val="2135287176"/>
+        <c:axId val="2135290376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2126331464"/>
+        <c:axId val="2135287176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3058,7 +4231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126328264"/>
+        <c:crossAx val="2135290376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3066,7 +4239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126328264"/>
+        <c:axId val="2135290376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3077,7 +4250,397 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126331464"/>
+        <c:crossAx val="2135287176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05Todos-25-duvida'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZigZagOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05Todos-25-duvida'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05Todos-25-duvida'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.35796166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.43690666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.276859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.4725023333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05Todos-25-duvida'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NotSoNaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05Todos-25-duvida'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05Todos-25-duvida'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.927914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.648262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.77422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.6182116666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05Todos-25-duvida'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05Todos-25-duvida'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05Todos-25-duvida'!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.388118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.19355566666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.9538006666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.3582083333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05Todos-25-duvida'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05Todos-25-duvida'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05Todos-25-duvida'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.24429533333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.506488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.4277993333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.1466703333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05Todos-25-duvida'!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AntiTSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'05Todos-25-duvida'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05Todos-25-duvida'!$C$29:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.897711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.053749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.271979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.771024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2139378744"/>
+        <c:axId val="2139381752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2139378744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2139381752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2139381752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2139378744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3351,15 +4914,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>25399</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>406399</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3375,6 +4938,107 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>406399</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4667,7 +6331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:C24"/>
     </sheetView>
   </sheetViews>
@@ -5007,10 +6671,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C16"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5097,7 +6761,12 @@
       <c r="C5" s="4">
         <v>1.0773763333333299</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -5334,6 +7003,567 @@
       <c r="C24" s="4">
         <v>25.358208333333302</v>
       </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3.24429533333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="5">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8">
+        <v>6.506488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="5">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8">
+        <v>13.427799333333301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5">
+        <v>16</v>
+      </c>
+      <c r="C28" s="8">
+        <v>26.146670333333301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.89771100000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.053749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.271979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="5">
+        <v>16</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1.7710239999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="36">
+      <c r="A39" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8">
+        <v>3.3579616666666601</v>
+      </c>
+      <c r="E1" s="7">
+        <v>42621</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8">
+        <v>6.4369066666666601</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8">
+        <v>13.276859</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8">
+        <v>25.472502333333299</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.0773763333333299</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45">
+      <c r="A6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2.2095893333333301</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="I6" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4.2870520000000001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8">
+        <v>9.0904886666666602</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2.9279139999999999</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="11">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5.6482619999999999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>11.77422</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="11">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8">
+        <v>22.6182116666666</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.0829880000000001</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.2291346666666598</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="11">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4.3928580000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="11">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8">
+        <v>8.8233436666666591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.069415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="11">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2.30083233333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="11">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4.5850629999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="11">
+        <v>16</v>
+      </c>
+      <c r="C20" s="8">
+        <v>9.6082986666666592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3.388118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="11">
+        <v>4</v>
+      </c>
+      <c r="C22" s="8">
+        <v>6.1935556666666596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="11">
+        <v>8</v>
+      </c>
+      <c r="C23" s="8">
+        <v>11.9538006666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="11">
+        <v>16</v>
+      </c>
+      <c r="C24" s="8">
+        <v>25.358208333333302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3.24429533333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="11">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8">
+        <v>6.506488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="11">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8">
+        <v>13.427799333333301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="11">
+        <v>16</v>
+      </c>
+      <c r="C28" s="8">
+        <v>26.146670333333301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.89771100000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="11">
+        <v>4</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.053749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="11">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.271979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="11">
+        <v>16</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1.7710239999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="C37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/linuxRunners/some results.xlsx
+++ b/linuxRunners/some results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="0" windowWidth="33440" windowHeight="19540" tabRatio="757" activeTab="6"/>
+    <workbookView xWindow="680" yWindow="0" windowWidth="30900" windowHeight="18960" tabRatio="757" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="01data-Alpha" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="04data-beta" sheetId="6" r:id="rId4"/>
     <sheet name="05Todos-25-erroColeta" sheetId="7" r:id="rId5"/>
     <sheet name="05Todos-25-duvida" sheetId="8" r:id="rId6"/>
-    <sheet name="06-20-running" sheetId="9" r:id="rId7"/>
+    <sheet name="06-20-PARTIAL-running" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -144,9 +144,6 @@
     <t>MISTURADA</t>
   </si>
   <si>
-    <t>mandei rodar 10 depois rodo mais 20</t>
-  </si>
-  <si>
     <t>ROUNDS=7500000</t>
   </si>
   <si>
@@ -162,10 +159,13 @@
     <t>tudo no LAC</t>
   </si>
   <si>
-    <t>diminui</t>
+    <t>LOOPS=5</t>
   </si>
   <si>
-    <t>LOOPS=5</t>
+    <t>mandei rodar 5 depois rodo mais 25</t>
+  </si>
+  <si>
+    <t>diminui MUITO, quando mais pontos, melhor vai ficando o TSP</t>
   </si>
 </sst>
 </file>
@@ -878,7 +878,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-running'!$A$1</c:f>
+              <c:f>'06-20-PARTIAL-running'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -892,7 +892,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -913,21 +913,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-running'!$C$1:$C$4</c:f>
+              <c:f>'06-20-PARTIAL-running'!$C$1:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.35796166666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.43690666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.276859</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.4725023333333</c:v>
+                  <c:v>3.56006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.06631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.47832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.605262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,7 +939,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-running'!$A$10</c:f>
+              <c:f>'06-20-PARTIAL-running'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -953,7 +953,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -974,21 +974,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-running'!$C$9:$C$12</c:f>
+              <c:f>'06-20-PARTIAL-running'!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.927914</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.648262</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.77422</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.6182116666666</c:v>
+                  <c:v>3.055038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.820196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.254448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.781112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,7 +1000,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-running'!$A$5</c:f>
+              <c:f>'06-20-PARTIAL-running'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1014,7 +1014,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1035,21 +1035,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-running'!$C$5:$C$8</c:f>
+              <c:f>'06-20-PARTIAL-running'!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.07737633333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.20958933333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.287052</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.09048866666666</c:v>
+                  <c:v>1.43876333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.634895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.57842333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.4733733333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,7 +1061,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-running'!$A$15</c:f>
+              <c:f>'06-20-PARTIAL-running'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1075,7 +1075,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1096,21 +1096,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-running'!$C$13:$C$16</c:f>
+              <c:f>'06-20-PARTIAL-running'!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.082988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.22913466666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.392858</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.82334366666666</c:v>
+                  <c:v>1.411228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.497232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.370154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.809774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,7 +1122,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-running'!$A$17</c:f>
+              <c:f>'06-20-PARTIAL-running'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1136,7 +1136,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1157,21 +1157,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-running'!$C$17:$C$20</c:f>
+              <c:f>'06-20-PARTIAL-running'!$C$17:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.069415</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.30083233333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.585063</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.608298666666659</c:v>
+                  <c:v>1.316112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.763438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.909356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.105646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,7 +1183,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-running'!$A$21</c:f>
+              <c:f>'06-20-PARTIAL-running'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1197,7 +1197,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1218,21 +1218,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-running'!$C$21:$C$24</c:f>
+              <c:f>'06-20-PARTIAL-running'!$C$21:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.388118</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.19355566666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.9538006666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.3582083333333</c:v>
+                  <c:v>4.103518</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.234336000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.4305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.378204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,7 +1244,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-running'!$A$26</c:f>
+              <c:f>'06-20-PARTIAL-running'!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1258,7 +1258,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1279,21 +1279,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-running'!$C$25:$C$28</c:f>
+              <c:f>'06-20-PARTIAL-running'!$C$25:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.24429533333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.506488</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.4277993333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.1466703333333</c:v>
+                  <c:v>4.58248181818181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.79682909090909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.82944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.201949090909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,7 +1305,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-running'!$A$30</c:f>
+              <c:f>'06-20-PARTIAL-running'!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1319,7 +1319,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1340,7 +1340,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-running'!$C$29:$C$32</c:f>
+              <c:f>'06-20-PARTIAL-running'!$C$29:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1451,7 +1451,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-running'!$A$1</c:f>
+              <c:f>'06-20-PARTIAL-running'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1465,7 +1465,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1486,21 +1486,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-running'!$C$1:$C$4</c:f>
+              <c:f>'06-20-PARTIAL-running'!$C$1:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.35796166666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.43690666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.276859</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.4725023333333</c:v>
+                  <c:v>3.56006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.06631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.47832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.605262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,7 +1512,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-running'!$A$10</c:f>
+              <c:f>'06-20-PARTIAL-running'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1526,7 +1526,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1547,21 +1547,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-running'!$C$9:$C$12</c:f>
+              <c:f>'06-20-PARTIAL-running'!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.927914</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.648262</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.77422</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.6182116666666</c:v>
+                  <c:v>3.055038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.820196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.254448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.781112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,7 +1573,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-running'!$A$21</c:f>
+              <c:f>'06-20-PARTIAL-running'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1587,7 +1587,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1608,21 +1608,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-running'!$C$21:$C$24</c:f>
+              <c:f>'06-20-PARTIAL-running'!$C$21:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.388118</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.19355566666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.9538006666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.3582083333333</c:v>
+                  <c:v>4.103518</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.234336000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.4305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.378204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,7 +1634,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-running'!$A$26</c:f>
+              <c:f>'06-20-PARTIAL-running'!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1648,7 +1648,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1669,21 +1669,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-running'!$C$25:$C$28</c:f>
+              <c:f>'06-20-PARTIAL-running'!$C$25:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.24429533333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.506488</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.4277993333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.1466703333333</c:v>
+                  <c:v>4.58248181818181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.79682909090909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.82944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.201949090909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1695,7 +1695,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-running'!$A$30</c:f>
+              <c:f>'06-20-PARTIAL-running'!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1709,7 +1709,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1730,7 +1730,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-running'!$C$29:$C$32</c:f>
+              <c:f>'06-20-PARTIAL-running'!$C$29:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1801,6 +1801,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6331,7 +6332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17:C24"/>
     </sheetView>
   </sheetViews>
@@ -6674,7 +6675,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="Z116" sqref="Z116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7119,7 +7120,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7140,7 +7141,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8">
-        <v>3.3579616666666601</v>
+        <v>3.56006</v>
       </c>
       <c r="E1" s="7">
         <v>42621</v>
@@ -7155,13 +7156,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="8">
-        <v>6.4369066666666601</v>
+        <v>7.0663099999999996</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7172,13 +7173,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="8">
-        <v>13.276859</v>
+        <v>13.47832</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7189,10 +7190,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="8">
-        <v>25.472502333333299</v>
+        <v>27.605262</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -7204,13 +7205,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="8">
-        <v>1.0773763333333299</v>
+        <v>1.4387633333333301</v>
       </c>
       <c r="E5" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45">
@@ -7221,14 +7222,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="8">
-        <v>2.2095893333333301</v>
+        <v>2.6348950000000002</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2"/>
       <c r="I6" s="13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7239,7 +7240,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="8">
-        <v>4.2870520000000001</v>
+        <v>5.5784233333333297</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -7254,7 +7255,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="8">
-        <v>9.0904886666666602</v>
+        <v>11.473373333333299</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -7266,7 +7267,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="8">
-        <v>2.9279139999999999</v>
+        <v>3.0550380000000001</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -7281,7 +7282,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="8">
-        <v>5.6482619999999999</v>
+        <v>6.8201960000000001</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -7296,7 +7297,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="8">
-        <v>11.77422</v>
+        <v>12.254448</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -7308,7 +7309,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="8">
-        <v>22.6182116666666</v>
+        <v>24.781112</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -7320,13 +7321,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="8">
-        <v>1.0829880000000001</v>
+        <v>1.4112279999999999</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7337,7 +7338,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="8">
-        <v>2.2291346666666598</v>
+        <v>2.4972319999999999</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -7352,7 +7353,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="8">
-        <v>4.3928580000000004</v>
+        <v>5.3701540000000003</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -7363,7 +7364,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="8">
-        <v>8.8233436666666591</v>
+        <v>10.809774000000001</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7374,7 +7375,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="8">
-        <v>1.069415</v>
+        <v>1.3161119999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7385,7 +7386,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="8">
-        <v>2.30083233333333</v>
+        <v>2.7634379999999998</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7396,7 +7397,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="8">
-        <v>4.5850629999999999</v>
+        <v>5.9093559999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7407,7 +7408,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="8">
-        <v>9.6082986666666592</v>
+        <v>11.105646</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7418,7 +7419,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="8">
-        <v>3.388118</v>
+        <v>4.1035180000000002</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7429,7 +7430,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="8">
-        <v>6.1935556666666596</v>
+        <v>8.2343360000000008</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7440,7 +7441,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="8">
-        <v>11.9538006666666</v>
+        <v>15.4305</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7451,7 +7452,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="8">
-        <v>25.358208333333302</v>
+        <v>32.378203999999997</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7462,7 +7463,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="8">
-        <v>3.24429533333333</v>
+        <v>4.5824818181818099</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7473,7 +7474,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="8">
-        <v>6.506488</v>
+        <v>6.7968290909090898</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7484,7 +7485,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="8">
-        <v>13.427799333333301</v>
+        <v>12.82944</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7495,7 +7496,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="8">
-        <v>26.146670333333301</v>
+        <v>24.201949090909</v>
       </c>
     </row>
     <row r="29" spans="1:3">

--- a/linuxRunners/some results.xlsx
+++ b/linuxRunners/some results.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\_gits\surveillanceStrategies\linuxRunners\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="680" yWindow="0" windowWidth="30900" windowHeight="18960" tabRatio="757" activeTab="6"/>
+    <workbookView xWindow="675" yWindow="1800" windowWidth="30900" windowHeight="18960" tabRatio="757" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="01data-Alpha" sheetId="2" r:id="rId1"/>
@@ -13,7 +18,9 @@
     <sheet name="04data-beta" sheetId="6" r:id="rId4"/>
     <sheet name="05Todos-25-erroColeta" sheetId="7" r:id="rId5"/>
     <sheet name="05Todos-25-duvida" sheetId="8" r:id="rId6"/>
-    <sheet name="06-20-PARTIAL-running" sheetId="9" r:id="rId7"/>
+    <sheet name="06-20-long-ok" sheetId="9" r:id="rId7"/>
+    <sheet name="07-20-mid-ok" sheetId="10" r:id="rId8"/>
+    <sheet name="07-20-short-ok" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="48">
   <si>
     <t>LOOPS=40</t>
   </si>
@@ -153,19 +160,22 @@
     <t>dobrei</t>
   </si>
   <si>
-    <t>simplifiquei</t>
-  </si>
-  <si>
     <t>tudo no LAC</t>
   </si>
   <si>
-    <t>LOOPS=5</t>
+    <t>diminui MUITO, quando mais pontos, melhor vai ficando o TSP</t>
   </si>
   <si>
-    <t>mandei rodar 5 depois rodo mais 25</t>
+    <t>voltei</t>
   </si>
   <si>
-    <t>diminui MUITO, quando mais pontos, melhor vai ficando o TSP</t>
+    <t>REFRESHRATE=3750000</t>
+  </si>
+  <si>
+    <t>ROUNDS==1875000</t>
+  </si>
+  <si>
+    <t>menor</t>
   </si>
 </sst>
 </file>
@@ -176,7 +186,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,6 +253,12 @@
       <sz val="36"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -352,7 +368,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -368,6 +384,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -460,6 +478,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -507,16 +533,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,16 +554,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.7353134375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9621245</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.299783875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.4640736875</c:v>
+                  <c:v>2.7353134374999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9621244999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2997838749999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.464073687500001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -568,16 +594,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,16 +615,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1399725625</c:v>
+                  <c:v>0.13997256250000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.3039356875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5587553125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90555275</c:v>
+                  <c:v>0.55875531249999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90555275000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -629,16 +655,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,16 +676,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.342456625</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6204799375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.058996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.8023605625</c:v>
+                  <c:v>2.3424566250000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6204799374999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0589960000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.802360562500001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -690,16 +716,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,16 +737,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3163225625</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5181463125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.3066943125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.5618734375</c:v>
+                  <c:v>2.3163225624999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5181463124999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3066943124999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.561873437499999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,16 +777,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,13 +801,13 @@
                   <c:v>1.2703341875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3185009375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4203116875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4948811875</c:v>
+                  <c:v>1.3185009375000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4203116874999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4948811875000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -796,13 +822,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134140200"/>
-        <c:axId val="2134137128"/>
+        <c:axId val="353381528"/>
+        <c:axId val="353382312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134140200"/>
+        <c:axId val="353381528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,7 +837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134137128"/>
+        <c:crossAx val="353382312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -820,7 +845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134137128"/>
+        <c:axId val="353382312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,14 +856,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134140200"/>
+        <c:crossAx val="353381528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -847,7 +871,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -878,7 +902,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-PARTIAL-running'!$A$1</c:f>
+              <c:f>'06-20-long-ok'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -892,42 +916,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-long-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$C$1:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.56006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.06631</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.47832</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.605262</c:v>
+              <c:f>'06-20-long-ok'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7188669999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3806149999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.881589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.004940999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,7 +963,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-PARTIAL-running'!$A$10</c:f>
+              <c:f>'06-20-long-ok'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -953,42 +977,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-long-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$C$9:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.055038</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.820196</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.254448</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.781112</c:v>
+              <c:f>'06-20-long-ok'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.1820089999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2473736666666602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0064003333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.6168466666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,7 +1024,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-PARTIAL-running'!$A$5</c:f>
+              <c:f>'06-20-long-ok'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1014,42 +1038,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-long-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$C$5:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.43876333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.634895</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.57842333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.4733733333333</c:v>
+              <c:f>'06-20-long-ok'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3404799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7511700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6690709677419298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.722432903225799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,7 +1085,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-PARTIAL-running'!$A$15</c:f>
+              <c:f>'06-20-long-ok'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1075,42 +1099,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-long-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$C$13:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.411228</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.497232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.370154</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.809774</c:v>
+              <c:f>'06-20-long-ok'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3183033333333301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.69554633333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5187836666666596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.713177666666599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,7 +1146,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-PARTIAL-running'!$A$17</c:f>
+              <c:f>'06-20-long-ok'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1136,42 +1160,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-long-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$C$17:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.316112</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.763438</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.909356</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.105646</c:v>
+              <c:f>'06-20-long-ok'!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.34103833333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7439516666666601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4731543333333299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.880717000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,7 +1207,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-PARTIAL-running'!$A$21</c:f>
+              <c:f>'06-20-long-ok'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1197,42 +1221,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-long-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$C$21:$C$24</c:f>
-              <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.103518</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.234336000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.4305</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.378204</c:v>
+              <c:f>'06-20-long-ok'!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.8698676666666598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7177949999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.552009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.5361366666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,7 +1268,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-PARTIAL-running'!$A$26</c:f>
+              <c:f>'06-20-long-ok'!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1258,42 +1282,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-long-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$C$25:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.58248181818181</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.79682909090909</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.82944</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.201949090909</c:v>
+              <c:f>'06-20-long-ok'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.6715855737704901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9675475409835999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.089033770491801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.506016721311401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,7 +1329,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-PARTIAL-running'!$A$30</c:f>
+              <c:f>'06-20-long-ok'!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1319,33 +1343,33 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-long-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$C$29:$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.897711</c:v>
+              <c:f>'06-20-long-ok'!$C$29:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.89771100000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.053749</c:v>
@@ -1354,7 +1378,7 @@
                   <c:v>1.271979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.771024</c:v>
+                  <c:v>1.7710239999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1369,13 +1393,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2129817928"/>
-        <c:axId val="2129978424"/>
+        <c:axId val="355150992"/>
+        <c:axId val="355149816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2129817928"/>
+        <c:axId val="355150992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129978424"/>
+        <c:crossAx val="355149816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1393,18 +1416,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129978424"/>
+        <c:axId val="355149816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129817928"/>
+        <c:crossAx val="355150992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1420,7 +1443,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1451,7 +1474,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-PARTIAL-running'!$A$1</c:f>
+              <c:f>'06-20-long-ok'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1465,42 +1488,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-long-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$C$1:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.56006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.06631</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.47832</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.605262</c:v>
+              <c:f>'06-20-long-ok'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7188669999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3806149999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.881589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.004940999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,7 +1535,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-PARTIAL-running'!$A$10</c:f>
+              <c:f>'06-20-long-ok'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1526,42 +1549,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-long-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$C$9:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.055038</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.820196</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.254448</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.781112</c:v>
+              <c:f>'06-20-long-ok'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.1820089999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2473736666666602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0064003333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.6168466666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,7 +1596,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-PARTIAL-running'!$A$21</c:f>
+              <c:f>'06-20-long-ok'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1587,42 +1610,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-long-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$C$21:$C$24</c:f>
-              <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.103518</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.234336000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.4305</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.378204</c:v>
+              <c:f>'06-20-long-ok'!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.8698676666666598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7177949999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.552009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.5361366666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,7 +1657,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06-20-PARTIAL-running'!$A$26</c:f>
+              <c:f>'06-20-long-ok'!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1648,103 +1671,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
+              <c:f>'06-20-long-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$C$25:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.58248181818181</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.79682909090909</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.82944</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.201949090909</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'06-20-PARTIAL-running'!$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AntiTSPbasedMobility</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$B$29:$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'06-20-PARTIAL-running'!$C$29:$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.897711</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.053749</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.271979</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.771024</c:v>
+              <c:f>'06-20-long-ok'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.6715855737704901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9675475409835999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.089033770491801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.506016721311401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,13 +1721,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143190152"/>
-        <c:axId val="2143122968"/>
+        <c:axId val="355143936"/>
+        <c:axId val="355146288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143190152"/>
+        <c:axId val="355143936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,7 +1736,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143122968"/>
+        <c:crossAx val="355146288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1783,18 +1744,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143122968"/>
+        <c:axId val="355146288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143190152"/>
+        <c:crossAx val="355143936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1810,7 +1771,1806 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-mid-ok'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZigZagOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7574906666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7087556666666597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.657755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.157091999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-mid-ok'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NotSoNaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2325729999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5835383333333297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.9745993333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.574897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-mid-ok'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.34380566666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6899143333333302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3421459999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.183471000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-mid-ok'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZigZagOverNaiveMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.412514</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6006716666666598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4504113333333297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.104093333333299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-mid-ok'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNaiveMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4397473333333299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7042643333333301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8090066666666598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0622593333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-mid-ok'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7738019999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0592819999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.3497583333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.266522333333299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-mid-ok'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.9984203174603099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7311028571428499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.3958952380952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.696225396825302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-mid-ok'!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AntiTSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$C$29:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.89771100000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.053749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.271979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7710239999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="355144720"/>
+        <c:axId val="355146680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="355144720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="355146680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="355146680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="355144720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-mid-ok'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZigZagOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7574906666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7087556666666597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.657755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.157091999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-mid-ok'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NotSoNaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2325729999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5835383333333297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.9745993333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.574897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-mid-ok'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7738019999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0592819999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.3497583333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.266522333333299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-mid-ok'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-mid-ok'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.9984203174603099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7311028571428499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.3958952380952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.696225396825302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="355147856"/>
+        <c:axId val="355148248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="355147856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="355148248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="355148248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="355147856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-short-ok'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZigZagOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.721393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6082970000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.445948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.689917999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-short-ok'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NotSoNaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2535376666666602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4805903333333301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.561703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.836082666666599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-short-ok'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.34874933333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7247219999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3685823333333298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.648005666666601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-short-ok'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZigZagOverNaiveMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.323402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.85926366666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5135493333333301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.2543176666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-short-ok'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNaiveMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.42682</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.722655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3515643333333296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.2484706666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-short-ok'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7882263333333301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.28570766666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0337346666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.8848633333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-short-ok'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.5666386666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1014853333333301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.594139333333301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.481283333333302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-short-ok'!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AntiTSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$C$29:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.89771100000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.053749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.271979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7710239999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="360314448"/>
+        <c:axId val="360319544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="360314448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="360319544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="360319544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="360314448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-short-ok'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZigZagOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.721393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6082970000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.445948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.689917999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-short-ok'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NotSoNaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2535376666666602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4805903333333301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.561703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.836082666666599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-short-ok'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7882263333333301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.28570766666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0337346666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.8848633333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'07-20-short-ok'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'07-20-short-ok'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.5666386666666599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1014853333333301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.594139333333301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.481283333333302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="360317192"/>
+        <c:axId val="360321504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="360317192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="360321504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="360321504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="360317192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1860,16 +3620,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,16 +3641,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.7353134375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9621245</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.299783875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.4640736875</c:v>
+                  <c:v>2.7353134374999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9621244999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2997838749999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.464073687500001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,16 +3681,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1942,16 +3702,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.342456625</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6204799375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.058996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.8023605625</c:v>
+                  <c:v>2.3424566250000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6204799374999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0589960000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.802360562500001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,16 +3742,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2003,16 +3763,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3163225625</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5181463125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.3066943125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.5618734375</c:v>
+                  <c:v>2.3163225624999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5181463124999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3066943124999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.561873437499999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2027,13 +3787,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134074392"/>
-        <c:axId val="2134071400"/>
+        <c:axId val="353385448"/>
+        <c:axId val="353385840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134074392"/>
+        <c:axId val="353385448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,7 +3802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134071400"/>
+        <c:crossAx val="353385840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2051,7 +3810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134071400"/>
+        <c:axId val="353385840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,14 +3821,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134074392"/>
+        <c:crossAx val="353385448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2078,7 +3836,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2137,16 +3895,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.12964</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.26967333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.49184666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.6112833333333</c:v>
+                  <c:v>3.1296400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2696733333333299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4918466666666603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.611283333333301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2186,16 +3944,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.41986333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.70500666666666</c:v>
+                  <c:v>3.4198633333333301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7050066666666597</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.3276666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.9068066666666</c:v>
+                  <c:v>25.906806666666601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2235,16 +3993,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.73517666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.21281666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.4315366666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.9123366666666</c:v>
+                  <c:v>3.7351766666666602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2128166666666598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.431536666666601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.912336666666601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,13 +4085,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134023928"/>
-        <c:axId val="2134020856"/>
+        <c:axId val="353384664"/>
+        <c:axId val="353386624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134023928"/>
+        <c:axId val="353384664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,7 +4100,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134020856"/>
+        <c:crossAx val="353386624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2351,7 +4108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134020856"/>
+        <c:axId val="353386624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,14 +4119,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134023928"/>
+        <c:crossAx val="353384664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2378,7 +4134,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2428,16 +4184,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2449,16 +4205,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.12964</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.26967333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.49184666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.6112833333333</c:v>
+                  <c:v>3.1296400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2696733333333299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4918466666666603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.611283333333301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2489,16 +4245,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,16 +4266,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.73517666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.21281666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.4315366666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.9123366666666</c:v>
+                  <c:v>3.7351766666666602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2128166666666598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.431536666666601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.912336666666601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2550,16 +4306,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,16 +4327,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.41986333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.70500666666666</c:v>
+                  <c:v>3.4198633333333301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7050066666666597</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.3276666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.9068066666666</c:v>
+                  <c:v>25.906806666666601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2595,13 +4351,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133989992"/>
-        <c:axId val="2133987000"/>
+        <c:axId val="284850904"/>
+        <c:axId val="284849728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133989992"/>
+        <c:axId val="284850904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,7 +4366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133987000"/>
+        <c:crossAx val="284849728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2619,7 +4374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133987000"/>
+        <c:axId val="284849728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2630,14 +4385,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133989992"/>
+        <c:crossAx val="284850904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2646,7 +4400,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2696,16 +4450,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2714,19 +4468,19 @@
             <c:numRef>
               <c:f>'03data-beta'!$C$1:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.326367</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.415144</c:v>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3263669999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4151439999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.568044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.23651</c:v>
+                  <c:v>28.236509999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2757,16 +4511,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2775,19 +4529,19 @@
             <c:numRef>
               <c:f>'03data-beta'!$C$9:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
+                <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.558494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.218551</c:v>
+                  <c:v>7.2185509999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.108468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.444289</c:v>
+                  <c:v>29.444289000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2818,16 +4572,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2836,19 +4590,19 @@
             <c:numRef>
               <c:f>'03data-beta'!$C$5:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.131371</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.47067</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.624524</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.825341</c:v>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.1313710000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4706700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.624523999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.825341000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2863,13 +4617,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133947368"/>
-        <c:axId val="2133944312"/>
+        <c:axId val="284851296"/>
+        <c:axId val="284852472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133947368"/>
+        <c:axId val="284851296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2879,7 +4632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133944312"/>
+        <c:crossAx val="284852472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2887,25 +4640,24 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133944312"/>
+        <c:axId val="284852472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133947368"/>
+        <c:crossAx val="284851296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2914,7 +4666,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2964,16 +4716,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2982,10 +4734,10 @@
             <c:numRef>
               <c:f>'04data-beta'!$C$1:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.15042829268292</c:v>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.1504282926829199</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.83115121951219</c:v>
@@ -3025,16 +4777,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3043,19 +4795,19 @@
             <c:numRef>
               <c:f>'04data-beta'!$C$9:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.615052</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.897811</c:v>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.6150519999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8978109999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.823088</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.028619</c:v>
+                  <c:v>28.028618999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3086,16 +4838,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3104,16 +4856,16 @@
             <c:numRef>
               <c:f>'04data-beta'!$C$5:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.183175</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.293619</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.641666</c:v>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.1831749999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2936189999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.641666000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25.613135</c:v>
@@ -3147,16 +4899,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3165,19 +4917,19 @@
             <c:numRef>
               <c:f>'04data-beta'!$C$13:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
+                <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.247444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.693923</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.535141</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.742145</c:v>
+                  <c:v>2.6939229999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5351410000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.742145000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3192,13 +4944,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133899320"/>
-        <c:axId val="2133896120"/>
+        <c:axId val="284848552"/>
+        <c:axId val="284849336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133899320"/>
+        <c:axId val="284848552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3208,7 +4959,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133896120"/>
+        <c:crossAx val="284849336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3216,25 +4967,24 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133896120"/>
+        <c:axId val="284849336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133899320"/>
+        <c:crossAx val="284848552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3243,7 +4993,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3293,16 +5043,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3311,19 +5061,19 @@
             <c:numRef>
               <c:f>'05Todos-25-erroColeta'!$C$1:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
+                <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>14.3111690434782</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.202184347826</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>79.5967245217391</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>246.752115130434</c:v>
+                  <c:v>21.202184347826002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.596724521739105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246.75211513043399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3354,16 +5104,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3372,19 +5122,19 @@
             <c:numRef>
               <c:f>'05Todos-25-erroColeta'!$C$9:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>12.4384906896551</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.2370734482758</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49.3034048275862</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98.81574413793101</c:v>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.438490689655101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.237073448275801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.303404827586199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.815744137931006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3415,16 +5165,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3433,7 +5183,7 @@
             <c:numRef>
               <c:f>'05Todos-25-erroColeta'!$C$5:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
+                <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6.02996206896551</c:v>
@@ -3442,10 +5192,10 @@
                   <c:v>12.1768427586206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.8780196551724</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.4848903448275</c:v>
+                  <c:v>24.878019655172402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.484890344827498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3476,16 +5226,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,19 +5244,19 @@
             <c:numRef>
               <c:f>'05Todos-25-erroColeta'!$C$13:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.99479929203539</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.8155982300884</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.0805929203539</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48.5073465486725</c:v>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.9947992920353901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.815598230088399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.080592920353901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.507346548672501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3537,16 +5287,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3555,7 +5305,7 @@
             <c:numRef>
               <c:f>'05Todos-25-erroColeta'!$C$17:$C$20</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
+                <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.13002433333333</c:v>
@@ -3567,7 +5317,7 @@
                   <c:v>4.45380166666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.799508</c:v>
+                  <c:v>8.7995079999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3598,16 +5348,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3616,7 +5366,7 @@
             <c:numRef>
               <c:f>'05Todos-25-erroColeta'!$C$21:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
+                <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.40142533333333</c:v>
@@ -3628,7 +5378,7 @@
                   <c:v>12.6985676666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.1910646666666</c:v>
+                  <c:v>25.191064666666598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3643,13 +5393,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135232408"/>
-        <c:axId val="2135235608"/>
+        <c:axId val="128625984"/>
+        <c:axId val="284854040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2135232408"/>
+        <c:axId val="128625984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3659,7 +5408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135235608"/>
+        <c:crossAx val="284854040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3667,25 +5416,24 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135235608"/>
+        <c:axId val="284854040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135232408"/>
+        <c:crossAx val="128625984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3694,7 +5442,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3744,16 +5492,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3762,19 +5510,19 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$1:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.35796166666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.43690666666666</c:v>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3579616666666601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4369066666666601</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.276859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.4725023333333</c:v>
+                  <c:v>25.472502333333299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3805,16 +5553,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3823,13 +5571,13 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$9:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.927914</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.648262</c:v>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9279139999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6482619999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.77422</c:v>
@@ -3866,16 +5614,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3884,19 +5632,19 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$5:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.07737633333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.20958933333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.287052</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.09048866666666</c:v>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0773763333333299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2095893333333301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2870520000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0904886666666602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3927,16 +5675,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3945,19 +5693,19 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$13:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.082988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.22913466666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.392858</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.82334366666666</c:v>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0829880000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2291346666666598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3928580000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8233436666666591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3988,16 +5736,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4006,7 +5754,7 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$17:$C$20</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
+                <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.069415</c:v>
@@ -4015,10 +5763,10 @@
                   <c:v>2.30083233333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.585063</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.608298666666659</c:v>
+                  <c:v>4.5850629999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6082986666666592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4049,16 +5797,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4067,19 +5815,19 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$21:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
+                <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.388118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.19355566666666</c:v>
+                  <c:v>6.1935556666666596</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.9538006666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.3582083333333</c:v>
+                  <c:v>25.358208333333302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4110,16 +5858,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4128,7 +5876,7 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$25:$C$28</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
+                <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.24429533333333</c:v>
@@ -4137,10 +5885,10 @@
                   <c:v>6.506488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.4277993333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.1466703333333</c:v>
+                  <c:v>13.427799333333301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.146670333333301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4171,16 +5919,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4189,10 +5937,10 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$29:$C$32</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.897711</c:v>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.89771100000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.053749</c:v>
@@ -4201,7 +5949,7 @@
                   <c:v>1.271979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.771024</c:v>
+                  <c:v>1.7710239999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4216,13 +5964,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135287176"/>
-        <c:axId val="2135290376"/>
+        <c:axId val="355150600"/>
+        <c:axId val="355145112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2135287176"/>
+        <c:axId val="355150600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4232,7 +5979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135290376"/>
+        <c:crossAx val="355145112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4240,25 +5987,24 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135290376"/>
+        <c:axId val="355145112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135287176"/>
+        <c:crossAx val="355150600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4267,7 +6013,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4317,16 +6063,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4335,19 +6081,19 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$1:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.35796166666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.43690666666666</c:v>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3579616666666601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4369066666666601</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.276859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.4725023333333</c:v>
+                  <c:v>25.472502333333299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4378,16 +6124,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4396,13 +6142,13 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$9:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.927914</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.648262</c:v>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9279139999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6482619999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.77422</c:v>
@@ -4439,16 +6185,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4457,19 +6203,19 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$21:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
+                <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.388118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.19355566666666</c:v>
+                  <c:v>6.1935556666666596</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.9538006666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.3582083333333</c:v>
+                  <c:v>25.358208333333302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4500,16 +6246,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4518,7 +6264,7 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$25:$C$28</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
+                <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.24429533333333</c:v>
@@ -4527,10 +6273,10 @@
                   <c:v>6.506488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.4277993333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.1466703333333</c:v>
+                  <c:v>13.427799333333301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.146670333333301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4561,16 +6307,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4579,10 +6325,10 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$29:$C$32</c:f>
               <c:numCache>
-                <c:formatCode>#.##00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.897711</c:v>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.89771100000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.053749</c:v>
@@ -4591,7 +6337,7 @@
                   <c:v>1.271979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.771024</c:v>
+                  <c:v>1.7710239999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4606,13 +6352,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2139378744"/>
-        <c:axId val="2139381752"/>
+        <c:axId val="355143544"/>
+        <c:axId val="355145896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139378744"/>
+        <c:axId val="355143544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4622,7 +6367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139381752"/>
+        <c:crossAx val="355145896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4630,25 +6375,24 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139381752"/>
+        <c:axId val="355145896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139378744"/>
+        <c:crossAx val="355143544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4657,7 +6401,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4980,6 +6724,144 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>406399</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>406399</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5376,14 +7258,14 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5394,7 +7276,7 @@
         <v>2.7353134374999999</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5405,7 +7287,7 @@
         <v>4.9621244999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5416,7 +7298,7 @@
         <v>9.2997838749999993</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5427,7 +7309,7 @@
         <v>17.464073687500001</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5438,7 +7320,7 @@
         <v>0.13997256250000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5449,7 +7331,7 @@
         <v>0.3039356875</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5460,7 +7342,7 @@
         <v>0.55875531249999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5471,7 +7353,7 @@
         <v>0.90555275000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5482,7 +7364,7 @@
         <v>2.3424566250000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5493,7 +7375,7 @@
         <v>4.6204799374999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -5504,7 +7386,7 @@
         <v>9.0589960000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -5515,7 +7397,7 @@
         <v>13.802360562500001</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -5526,7 +7408,7 @@
         <v>2.3163225624999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -5537,7 +7419,7 @@
         <v>4.5181463124999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -5548,7 +7430,7 @@
         <v>9.3066943124999995</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -5559,7 +7441,7 @@
         <v>13.561873437499999</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -5570,7 +7452,7 @@
         <v>1.2703341875</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -5581,7 +7463,7 @@
         <v>1.3185009375000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -5592,7 +7474,7 @@
         <v>1.4203116874999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -5603,37 +7485,37 @@
         <v>1.4948811875000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -5658,14 +7540,14 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5676,7 +7558,7 @@
         <v>3.1296400000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5687,7 +7569,7 @@
         <v>6.2696733333333299</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5698,7 +7580,7 @@
         <v>8.4918466666666603</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5709,7 +7591,7 @@
         <v>24.611283333333301</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5720,7 +7602,7 @@
         <v>3.4198633333333301</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5731,7 +7613,7 @@
         <v>6.7050066666666597</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5742,7 +7624,7 @@
         <v>14.3276666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5753,7 +7635,7 @@
         <v>25.906806666666601</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5764,7 +7646,7 @@
         <v>3.7351766666666602</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5775,7 +7657,7 @@
         <v>7.2128166666666598</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5786,7 +7668,7 @@
         <v>13.431536666666601</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -5797,17 +7679,17 @@
         <v>27.912336666666601</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -5815,37 +7697,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -5870,14 +7752,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5888,7 +7770,7 @@
         <v>3.3263669999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5899,7 +7781,7 @@
         <v>6.4151439999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5910,7 +7792,7 @@
         <v>12.568044</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5921,7 +7803,7 @@
         <v>28.236509999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -5932,7 +7814,7 @@
         <v>3.1313710000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5943,7 +7825,7 @@
         <v>6.4706700000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -5954,7 +7836,7 @@
         <v>12.624523999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -5965,7 +7847,7 @@
         <v>23.825341000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5976,7 +7858,7 @@
         <v>3.558494</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5987,7 +7869,7 @@
         <v>7.2185509999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5998,7 +7880,7 @@
         <v>14.108468</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -6009,17 +7891,17 @@
         <v>29.444289000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -6027,37 +7909,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -6080,14 +7962,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -6098,7 +7980,7 @@
         <v>3.1504282926829199</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -6109,7 +7991,7 @@
         <v>6.83115121951219</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -6120,7 +8002,7 @@
         <v>12.3326565853658</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -6131,7 +8013,7 @@
         <v>26.3928780487804</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -6142,7 +8024,7 @@
         <v>3.1831749999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -6153,7 +8035,7 @@
         <v>6.2936189999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -6164,7 +8046,7 @@
         <v>12.641666000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -6175,7 +8057,7 @@
         <v>25.613135</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -6186,7 +8068,7 @@
         <v>3.6150519999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -6197,7 +8079,7 @@
         <v>6.8978109999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -6208,7 +8090,7 @@
         <v>13.823088</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -6219,7 +8101,7 @@
         <v>28.028618999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -6230,7 +8112,7 @@
         <v>1.247444</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -6241,7 +8123,7 @@
         <v>2.6939229999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -6252,7 +8134,7 @@
         <v>5.5351410000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -6263,17 +8145,17 @@
         <v>10.742145000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -6281,37 +8163,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -6336,17 +8218,17 @@
       <selection activeCell="C17" sqref="C17:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="0.6640625" customWidth="1"/>
+    <col min="6" max="6" width="0.625" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -6361,7 +8243,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -6378,7 +8260,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -6395,7 +8277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -6410,7 +8292,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6422,7 +8304,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6437,7 +8319,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -6452,7 +8334,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6464,7 +8346,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -6479,7 +8361,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -6494,7 +8376,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -6506,7 +8388,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -6518,7 +8400,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -6533,7 +8415,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -6548,7 +8430,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -6559,7 +8441,7 @@
         <v>29.080592920353901</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -6570,7 +8452,7 @@
         <v>48.507346548672501</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -6581,7 +8463,7 @@
         <v>1.13002433333333</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -6592,7 +8474,7 @@
         <v>2.17416866666666</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -6603,7 +8485,7 @@
         <v>4.45380166666666</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -6614,7 +8496,7 @@
         <v>8.7995079999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -6625,7 +8507,7 @@
         <v>3.40142533333333</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -6636,7 +8518,7 @@
         <v>6.41014033333333</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -6647,7 +8529,7 @@
         <v>12.6985676666666</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -6678,17 +8560,17 @@
       <selection activeCell="Z116" sqref="Z116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="0.6640625" customWidth="1"/>
+    <col min="6" max="6" width="0.625" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -6703,7 +8585,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -6720,7 +8602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -6737,7 +8619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -6752,7 +8634,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6769,7 +8651,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6784,7 +8666,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -6799,7 +8681,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6811,7 +8693,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -6826,7 +8708,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -6841,7 +8723,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -6853,7 +8735,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -6865,7 +8747,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -6880,7 +8762,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -6895,7 +8777,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -6906,7 +8788,7 @@
         <v>4.3928580000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -6917,7 +8799,7 @@
         <v>8.8233436666666591</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -6928,7 +8810,7 @@
         <v>1.069415</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -6939,7 +8821,7 @@
         <v>2.30083233333333</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -6950,7 +8832,7 @@
         <v>4.5850629999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -6961,7 +8843,7 @@
         <v>9.6082986666666592</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -6972,7 +8854,7 @@
         <v>3.388118</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -6983,7 +8865,7 @@
         <v>6.1935556666666596</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -6994,7 +8876,7 @@
         <v>11.9538006666666</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -7005,7 +8887,7 @@
         <v>25.358208333333302</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
@@ -7016,7 +8898,7 @@
         <v>3.24429533333333</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
@@ -7027,7 +8909,7 @@
         <v>6.506488</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
@@ -7038,7 +8920,7 @@
         <v>13.427799333333301</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
@@ -7049,7 +8931,7 @@
         <v>26.146670333333301</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
@@ -7060,7 +8942,7 @@
         <v>0.89771100000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
@@ -7071,7 +8953,7 @@
         <v>1.053749</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
@@ -7082,7 +8964,7 @@
         <v>1.271979</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
@@ -7093,12 +8975,12 @@
         <v>1.7710239999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="36">
+    <row r="39" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
         <v>36</v>
       </c>
@@ -7119,61 +9001,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="0.6640625" customWidth="1"/>
+    <col min="6" max="6" width="0.625" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
       <c r="B1">
         <v>2</v>
       </c>
-      <c r="C1" s="8">
-        <v>3.56006</v>
+      <c r="C1" s="15">
+        <v>3.7188669999999999</v>
       </c>
       <c r="E1" s="7">
         <v>42621</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2" s="8">
-        <v>7.0663099999999996</v>
+      <c r="C2" s="15">
+        <v>7.3806149999999997</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="8">
-        <v>13.47832</v>
+      <c r="C3" s="15">
+        <v>14.881589</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>39</v>
@@ -7182,324 +9062,322 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4">
         <v>16</v>
       </c>
-      <c r="C4" s="8">
-        <v>27.605262</v>
+      <c r="C4" s="15">
+        <v>30.004940999999999</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="8">
-        <v>1.4387633333333301</v>
+      <c r="C5" s="15">
+        <v>1.3404799999999999</v>
       </c>
       <c r="E5" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
-        <v>2.6348950000000002</v>
+      <c r="C6" s="15">
+        <v>2.7511700000000001</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="I6" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="11">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
-        <v>5.5784233333333297</v>
+      <c r="C7" s="15">
+        <v>5.6690709677419298</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="11">
         <v>16</v>
       </c>
-      <c r="C8" s="8">
-        <v>11.473373333333299</v>
+      <c r="C8" s="15">
+        <v>10.722432903225799</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="11">
         <v>2</v>
       </c>
-      <c r="C9" s="8">
-        <v>3.0550380000000001</v>
+      <c r="C9" s="15">
+        <v>3.1820089999999999</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="11">
         <v>4</v>
       </c>
-      <c r="C10" s="8">
-        <v>6.8201960000000001</v>
+      <c r="C10" s="15">
+        <v>6.2473736666666602</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
-        <v>12.254448</v>
+      <c r="C11" s="15">
+        <v>13.0064003333333</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="11">
         <v>16</v>
       </c>
-      <c r="C12" s="8">
-        <v>24.781112</v>
+      <c r="C12" s="15">
+        <v>24.6168466666666</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="11">
         <v>2</v>
       </c>
-      <c r="C13" s="8">
-        <v>1.4112279999999999</v>
+      <c r="C13" s="15">
+        <v>1.3183033333333301</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="11">
         <v>4</v>
       </c>
-      <c r="C14" s="8">
-        <v>2.4972319999999999</v>
+      <c r="C14" s="15">
+        <v>2.69554633333333</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="11">
         <v>8</v>
       </c>
-      <c r="C15" s="8">
-        <v>5.3701540000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="C15" s="15">
+        <v>5.5187836666666596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="11">
         <v>16</v>
       </c>
-      <c r="C16" s="8">
-        <v>10.809774000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="15">
+        <v>10.713177666666599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="11">
         <v>2</v>
       </c>
-      <c r="C17" s="8">
-        <v>1.3161119999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="15">
+        <v>1.34103833333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="11">
         <v>4</v>
       </c>
-      <c r="C18" s="8">
-        <v>2.7634379999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="15">
+        <v>2.7439516666666601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="11">
         <v>8</v>
       </c>
-      <c r="C19" s="8">
-        <v>5.9093559999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="15">
+        <v>5.4731543333333299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="11">
         <v>16</v>
       </c>
-      <c r="C20" s="8">
-        <v>11.105646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="15">
+        <v>10.880717000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="11">
         <v>2</v>
       </c>
-      <c r="C21" s="8">
-        <v>4.1035180000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="15">
+        <v>3.8698676666666598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="11">
         <v>4</v>
       </c>
-      <c r="C22" s="8">
-        <v>8.2343360000000008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="15">
+        <v>7.7177949999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="11">
         <v>8</v>
       </c>
-      <c r="C23" s="8">
-        <v>15.4305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="15">
+        <v>14.552009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="11">
         <v>16</v>
       </c>
-      <c r="C24" s="8">
-        <v>32.378203999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="15">
+        <v>29.5361366666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="11">
         <v>2</v>
       </c>
-      <c r="C25" s="8">
-        <v>4.5824818181818099</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="15">
+        <v>3.6715855737704901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="11">
         <v>4</v>
       </c>
-      <c r="C26" s="8">
-        <v>6.7968290909090898</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="15">
+        <v>6.9675475409835999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="11">
         <v>8</v>
       </c>
-      <c r="C27" s="8">
-        <v>12.82944</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="15">
+        <v>14.089033770491801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="11">
         <v>16</v>
       </c>
-      <c r="C28" s="8">
-        <v>24.201949090909</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="15">
+        <v>27.506016721311401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
@@ -7510,7 +9388,7 @@
         <v>0.89771100000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>9</v>
       </c>
@@ -7521,7 +9399,7 @@
         <v>1.053749</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>9</v>
       </c>
@@ -7532,7 +9410,7 @@
         <v>1.271979</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>9</v>
       </c>
@@ -7543,37 +9421,945 @@
         <v>1.7710239999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="11"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="0.625" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15">
+        <v>3.7574906666666599</v>
+      </c>
+      <c r="E1" s="7">
+        <v>42621</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15">
+        <v>7.7087556666666597</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15">
+        <v>14.657755</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15">
+        <v>30.157091999999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1.34380566666666</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2.6899143333333302</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5.3421459999999996</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
+        <v>11.183471000000001</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15">
+        <v>3.2325729999999999</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="11">
+        <v>4</v>
+      </c>
+      <c r="C10" s="15">
+        <v>6.5835383333333297</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15">
+        <v>12.9745993333333</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="11">
+        <v>16</v>
+      </c>
+      <c r="C12" s="15">
+        <v>25.574897</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1.412514</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2.6006716666666598</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="11">
+        <v>8</v>
+      </c>
+      <c r="C15" s="15">
+        <v>5.4504113333333297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="11">
+        <v>16</v>
+      </c>
+      <c r="C16" s="15">
+        <v>11.104093333333299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1.4397473333333299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="11">
+        <v>4</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2.7042643333333301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="11">
+        <v>8</v>
+      </c>
+      <c r="C19" s="15">
+        <v>5.8090066666666598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="11">
+        <v>16</v>
+      </c>
+      <c r="C20" s="15">
+        <v>11.0622593333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15">
+        <v>3.7738019999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="11">
+        <v>4</v>
+      </c>
+      <c r="C22" s="15">
+        <v>7.0592819999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="11">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15">
+        <v>14.3497583333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="11">
+        <v>16</v>
+      </c>
+      <c r="C24" s="15">
+        <v>30.266522333333299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2</v>
+      </c>
+      <c r="C25" s="15">
+        <v>3.9984203174603099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="11">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15">
+        <v>6.7311028571428499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="11">
+        <v>8</v>
+      </c>
+      <c r="C27" s="15">
+        <v>13.3958952380952</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="11">
+        <v>16</v>
+      </c>
+      <c r="C28" s="15">
+        <v>27.696225396825302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.89771100000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="11">
+        <v>4</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.053749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="11">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.271979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="11">
+        <v>16</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1.7710239999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="F111" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="Y105" sqref="Y105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="0.625" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15">
+        <v>3.721393</v>
+      </c>
+      <c r="E1" s="7">
+        <v>42621</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15">
+        <v>7.6082970000000003</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15">
+        <v>15.445948</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15">
+        <v>28.689917999999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1.34874933333333</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2.7247219999999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5.3685823333333298</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
+        <v>10.648005666666601</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15">
+        <v>3.2535376666666602</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="11">
+        <v>4</v>
+      </c>
+      <c r="C10" s="15">
+        <v>6.4805903333333301</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15">
+        <v>12.561703</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="11">
+        <v>16</v>
+      </c>
+      <c r="C12" s="15">
+        <v>25.836082666666599</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1.323402</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2.85926366666666</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="11">
+        <v>8</v>
+      </c>
+      <c r="C15" s="15">
+        <v>5.5135493333333301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="11">
+        <v>16</v>
+      </c>
+      <c r="C16" s="15">
+        <v>11.2543176666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1.42682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="11">
+        <v>4</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2.722655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="11">
+        <v>8</v>
+      </c>
+      <c r="C19" s="15">
+        <v>5.3515643333333296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="11">
+        <v>16</v>
+      </c>
+      <c r="C20" s="15">
+        <v>11.2484706666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15">
+        <v>3.7882263333333301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="11">
+        <v>4</v>
+      </c>
+      <c r="C22" s="15">
+        <v>7.28570766666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="11">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15">
+        <v>14.0337346666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="11">
+        <v>16</v>
+      </c>
+      <c r="C24" s="15">
+        <v>29.8848633333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2</v>
+      </c>
+      <c r="C25" s="15">
+        <v>3.5666386666666599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="11">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15">
+        <v>7.1014853333333301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="11">
+        <v>8</v>
+      </c>
+      <c r="C27" s="15">
+        <v>14.594139333333301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="11">
+        <v>16</v>
+      </c>
+      <c r="C28" s="15">
+        <v>27.481283333333302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.89771100000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="11">
+        <v>4</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.053749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="11">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.271979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="11">
+        <v>16</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1.7710239999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/linuxRunners/some results.xlsx
+++ b/linuxRunners/some results.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\_gits\surveillanceStrategies\linuxRunners\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="675" yWindow="1800" windowWidth="30900" windowHeight="18960" tabRatio="757" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33760" windowHeight="19820" tabRatio="757" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="01data-Alpha" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,8 @@
     <sheet name="05Todos-25-duvida" sheetId="8" r:id="rId6"/>
     <sheet name="06-20-long-ok" sheetId="9" r:id="rId7"/>
     <sheet name="07-20-mid-ok" sheetId="10" r:id="rId8"/>
-    <sheet name="07-20-short-ok" sheetId="11" r:id="rId9"/>
+    <sheet name="08-20-short-ok" sheetId="11" r:id="rId9"/>
+    <sheet name="09-22-50x-faltaTRT" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="49">
   <si>
     <t>LOOPS=40</t>
   </si>
@@ -177,6 +173,28 @@
   <si>
     <t>menor</t>
   </si>
+  <si>
+    <r>
+      <t>LOOPS=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -279,8 +297,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -387,7 +407,7 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -431,6 +451,7 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -474,6 +495,7 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -533,16 +555,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,16 +576,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.7353134374999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9621244999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.2997838749999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.464073687500001</c:v>
+                  <c:v>2.7353134375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9621245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.299783875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.4640736875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,16 +616,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,16 +637,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.13997256250000001</c:v>
+                  <c:v>0.1399725625</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.3039356875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55875531249999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90555275000000002</c:v>
+                  <c:v>0.5587553125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90555275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,16 +677,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,16 +698,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3424566250000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6204799374999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0589960000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.802360562500001</c:v>
+                  <c:v>2.342456625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6204799375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.058996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.8023605625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,16 +738,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,16 +759,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3163225624999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5181463124999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.3066943124999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.561873437499999</c:v>
+                  <c:v>2.3163225625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5181463125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3066943125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.5618734375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,16 +799,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,13 +823,13 @@
                   <c:v>1.2703341875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3185009375000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4203116874999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4948811875000001</c:v>
+                  <c:v>1.3185009375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4203116875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4948811875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,12 +844,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="353381528"/>
-        <c:axId val="353382312"/>
+        <c:axId val="2111739240"/>
+        <c:axId val="2111742344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="353381528"/>
+        <c:axId val="2111739240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353382312"/>
+        <c:crossAx val="2111742344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -845,7 +868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353382312"/>
+        <c:axId val="2111742344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +879,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353381528"/>
+        <c:crossAx val="2111739240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -871,7 +894,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -921,16 +944,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,19 +962,19 @@
             <c:numRef>
               <c:f>'06-20-long-ok'!$C$1:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.7188669999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3806149999999997</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.718867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.380615</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.881589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.004940999999999</c:v>
+                  <c:v>30.004941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,16 +1005,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,13 +1023,13 @@
             <c:numRef>
               <c:f>'06-20-long-ok'!$C$9:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.1820089999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2473736666666602</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.182009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.24737366666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.0064003333333</c:v>
@@ -1043,16 +1066,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,19 +1084,19 @@
             <c:numRef>
               <c:f>'06-20-long-ok'!$C$5:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.3404799999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7511700000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6690709677419298</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.722432903225799</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.34048</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.75117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.66907096774193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.7224329032258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,16 +1127,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,19 +1145,19 @@
             <c:numRef>
               <c:f>'06-20-long-ok'!$C$13:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.3183033333333301</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.31830333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.69554633333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5187836666666596</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.713177666666599</c:v>
+                  <c:v>5.51878366666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.7131776666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,16 +1188,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,19 +1206,19 @@
             <c:numRef>
               <c:f>'06-20-long-ok'!$C$17:$C$20</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.34103833333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7439516666666601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4731543333333299</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.880717000000001</c:v>
+                  <c:v>2.74395166666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.47315433333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.880717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,16 +1249,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,13 +1267,13 @@
             <c:numRef>
               <c:f>'06-20-long-ok'!$C$21:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.8698676666666598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7177949999999997</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.86986766666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.717795</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.552009</c:v>
@@ -1287,16 +1310,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,19 +1328,19 @@
             <c:numRef>
               <c:f>'06-20-long-ok'!$C$25:$C$28</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.6715855737704901</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9675475409835999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.089033770491801</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.506016721311401</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.67158557377049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9675475409836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0890337704918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.5060167213114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,16 +1371,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,10 +1389,10 @@
             <c:numRef>
               <c:f>'06-20-long-ok'!$C$29:$C$32</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.89771100000000004</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.897711</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.053749</c:v>
@@ -1378,7 +1401,7 @@
                   <c:v>1.271979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7710239999999999</c:v>
+                  <c:v>1.771024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,12 +1416,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355150992"/>
-        <c:axId val="355149816"/>
+        <c:axId val="2113500184"/>
+        <c:axId val="2113503208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355150992"/>
+        <c:axId val="2113500184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,7 +1432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355149816"/>
+        <c:crossAx val="2113503208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1416,18 +1440,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355149816"/>
+        <c:axId val="2113503208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355150992"/>
+        <c:crossAx val="2113500184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1443,7 +1467,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1493,16 +1517,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1511,19 +1535,19 @@
             <c:numRef>
               <c:f>'06-20-long-ok'!$C$1:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.7188669999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3806149999999997</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.718867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.380615</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.881589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.004940999999999</c:v>
+                  <c:v>30.004941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1554,16 +1578,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,13 +1596,13 @@
             <c:numRef>
               <c:f>'06-20-long-ok'!$C$9:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.1820089999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2473736666666602</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.182009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.24737366666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.0064003333333</c:v>
@@ -1615,16 +1639,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1633,13 +1657,13 @@
             <c:numRef>
               <c:f>'06-20-long-ok'!$C$21:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.8698676666666598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7177949999999997</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.86986766666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.717795</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.552009</c:v>
@@ -1676,16 +1700,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,19 +1718,19 @@
             <c:numRef>
               <c:f>'06-20-long-ok'!$C$25:$C$28</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.6715855737704901</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9675475409835999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.089033770491801</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.506016721311401</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.67158557377049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9675475409836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0890337704918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.5060167213114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,12 +1745,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355143936"/>
-        <c:axId val="355146288"/>
+        <c:axId val="2113534840"/>
+        <c:axId val="2113538024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355143936"/>
+        <c:axId val="2113534840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,7 +1761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355146288"/>
+        <c:crossAx val="2113538024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1744,18 +1769,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355146288"/>
+        <c:axId val="2113538024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355143936"/>
+        <c:crossAx val="2113534840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1771,7 +1796,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1821,16 +1846,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1839,19 +1864,19 @@
             <c:numRef>
               <c:f>'07-20-mid-ok'!$C$1:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.7574906666666599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7087556666666597</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.75749066666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.70875566666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.657755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.157091999999999</c:v>
+                  <c:v>30.157092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,16 +1907,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,13 +1925,13 @@
             <c:numRef>
               <c:f>'07-20-mid-ok'!$C$9:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.2325729999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.5835383333333297</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.232573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.58353833333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.9745993333333</c:v>
@@ -1943,16 +1968,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,19 +1986,19 @@
             <c:numRef>
               <c:f>'07-20-mid-ok'!$C$5:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.34380566666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6899143333333302</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3421459999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.183471000000001</c:v>
+                  <c:v>2.68991433333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.342146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.183471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2004,16 +2029,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2022,19 +2047,19 @@
             <c:numRef>
               <c:f>'07-20-mid-ok'!$C$13:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.412514</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6006716666666598</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4504113333333297</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.104093333333299</c:v>
+                  <c:v>2.60067166666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.45041133333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.1040933333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,16 +2090,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2083,16 +2108,16 @@
             <c:numRef>
               <c:f>'07-20-mid-ok'!$C$17:$C$20</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.4397473333333299</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7042643333333301</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8090066666666598</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.43974733333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.70426433333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.80900666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11.0622593333333</c:v>
@@ -2126,16 +2151,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2144,19 +2169,19 @@
             <c:numRef>
               <c:f>'07-20-mid-ok'!$C$21:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.7738019999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0592819999999996</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.773802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.059282</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.3497583333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.266522333333299</c:v>
+                  <c:v>30.2665223333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,16 +2212,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2205,19 +2230,19 @@
             <c:numRef>
               <c:f>'07-20-mid-ok'!$C$25:$C$28</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.9984203174603099</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.7311028571428499</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.99842031746031</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.73110285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.3958952380952</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.696225396825302</c:v>
+                  <c:v>27.6962253968253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2248,16 +2273,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,10 +2291,10 @@
             <c:numRef>
               <c:f>'07-20-mid-ok'!$C$29:$C$32</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.89771100000000004</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.897711</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.053749</c:v>
@@ -2278,7 +2303,7 @@
                   <c:v>1.271979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7710239999999999</c:v>
+                  <c:v>1.771024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2293,12 +2318,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355144720"/>
-        <c:axId val="355146680"/>
+        <c:axId val="2113602344"/>
+        <c:axId val="2113605368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355144720"/>
+        <c:axId val="2113602344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,7 +2334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355146680"/>
+        <c:crossAx val="2113605368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2316,18 +2342,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355146680"/>
+        <c:axId val="2113605368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355144720"/>
+        <c:crossAx val="2113602344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2343,7 +2369,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2393,16 +2419,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2411,19 +2437,19 @@
             <c:numRef>
               <c:f>'07-20-mid-ok'!$C$1:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.7574906666666599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7087556666666597</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.75749066666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.70875566666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.657755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.157091999999999</c:v>
+                  <c:v>30.157092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2454,16 +2480,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2472,13 +2498,13 @@
             <c:numRef>
               <c:f>'07-20-mid-ok'!$C$9:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.2325729999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.5835383333333297</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.232573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.58353833333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.9745993333333</c:v>
@@ -2515,16 +2541,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,19 +2559,19 @@
             <c:numRef>
               <c:f>'07-20-mid-ok'!$C$21:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.7738019999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0592819999999996</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.773802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.059282</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.3497583333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.266522333333299</c:v>
+                  <c:v>30.2665223333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2576,16 +2602,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2594,19 +2620,19 @@
             <c:numRef>
               <c:f>'07-20-mid-ok'!$C$25:$C$28</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.9984203174603099</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.7311028571428499</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.99842031746031</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.73110285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.3958952380952</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.696225396825302</c:v>
+                  <c:v>27.6962253968253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2621,12 +2647,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355147856"/>
-        <c:axId val="355148248"/>
+        <c:axId val="2111177752"/>
+        <c:axId val="2111174552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355147856"/>
+        <c:axId val="2111177752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2636,7 +2663,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355148248"/>
+        <c:crossAx val="2111174552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2644,24 +2671,25 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355148248"/>
+        <c:axId val="2111174552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355147856"/>
+        <c:crossAx val="2111177752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2670,7 +2698,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2701,7 +2729,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'07-20-short-ok'!$A$1</c:f>
+              <c:f>'08-20-short-ok'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2715,42 +2743,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:f>'08-20-short-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$C$1:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+              <c:f>'08-20-short-ok'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.721393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6082970000000003</c:v>
+                  <c:v>7.608297</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15.445948</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.689917999999999</c:v>
+                  <c:v>28.689918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,7 +2790,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'07-20-short-ok'!$A$10</c:f>
+              <c:f>'08-20-short-ok'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2776,42 +2804,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:f>'08-20-short-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$C$9:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.2535376666666602</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4805903333333301</c:v>
+              <c:f>'08-20-short-ok'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.25353766666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.48059033333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.561703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.836082666666599</c:v>
+                  <c:v>25.8360826666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2823,7 +2851,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'07-20-short-ok'!$A$5</c:f>
+              <c:f>'08-20-short-ok'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2837,42 +2865,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:f>'08-20-short-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$C$5:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+              <c:f>'08-20-short-ok'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.34874933333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7247219999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3685823333333298</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.648005666666601</c:v>
+                  <c:v>2.724722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.36858233333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.6480056666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2884,7 +2912,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'07-20-short-ok'!$A$15</c:f>
+              <c:f>'08-20-short-ok'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2898,30 +2926,30 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:f>'08-20-short-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$C$13:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+              <c:f>'08-20-short-ok'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.323402</c:v>
@@ -2930,7 +2958,7 @@
                   <c:v>2.85926366666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5135493333333301</c:v>
+                  <c:v>5.51354933333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11.2543176666666</c:v>
@@ -2945,7 +2973,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'07-20-short-ok'!$A$17</c:f>
+              <c:f>'08-20-short-ok'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2959,30 +2987,30 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:f>'08-20-short-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$C$17:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+              <c:f>'08-20-short-ok'!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.42682</c:v>
@@ -2991,7 +3019,7 @@
                   <c:v>2.722655</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3515643333333296</c:v>
+                  <c:v>5.35156433333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11.2484706666666</c:v>
@@ -3006,7 +3034,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'07-20-short-ok'!$A$21</c:f>
+              <c:f>'08-20-short-ok'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3020,33 +3048,33 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:f>'08-20-short-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$C$21:$C$24</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.7882263333333301</c:v>
+              <c:f>'08-20-short-ok'!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.78822633333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.28570766666666</c:v>
@@ -3067,7 +3095,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'07-20-short-ok'!$A$26</c:f>
+              <c:f>'08-20-short-ok'!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3081,42 +3109,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:f>'08-20-short-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$C$25:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.5666386666666599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.1014853333333301</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.594139333333301</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.481283333333302</c:v>
+              <c:f>'08-20-short-ok'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.56663866666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.10148533333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.5941393333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.4812833333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3128,7 +3156,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'07-20-short-ok'!$A$30</c:f>
+              <c:f>'08-20-short-ok'!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3142,33 +3170,33 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:f>'08-20-short-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$C$29:$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.89771100000000004</c:v>
+              <c:f>'08-20-short-ok'!$C$29:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.897711</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.053749</c:v>
@@ -3177,7 +3205,7 @@
                   <c:v>1.271979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7710239999999999</c:v>
+                  <c:v>1.771024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3192,12 +3220,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="360314448"/>
-        <c:axId val="360319544"/>
+        <c:axId val="2111104360"/>
+        <c:axId val="2111101320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="360314448"/>
+        <c:axId val="2111104360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3207,7 +3236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="360319544"/>
+        <c:crossAx val="2111101320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3215,25 +3244,24 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="360319544"/>
+        <c:axId val="2111101320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="360314448"/>
+        <c:crossAx val="2111104360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3242,7 +3270,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3273,7 +3301,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'07-20-short-ok'!$A$1</c:f>
+              <c:f>'08-20-short-ok'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3287,42 +3315,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:f>'08-20-short-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$C$1:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+              <c:f>'08-20-short-ok'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.721393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6082970000000003</c:v>
+                  <c:v>7.608297</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15.445948</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.689917999999999</c:v>
+                  <c:v>28.689918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3334,7 +3362,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'07-20-short-ok'!$A$10</c:f>
+              <c:f>'08-20-short-ok'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3348,42 +3376,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:f>'08-20-short-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$C$9:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.2535376666666602</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4805903333333301</c:v>
+              <c:f>'08-20-short-ok'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.25353766666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.48059033333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.561703</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.836082666666599</c:v>
+                  <c:v>25.8360826666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3395,7 +3423,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'07-20-short-ok'!$A$21</c:f>
+              <c:f>'08-20-short-ok'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3409,33 +3437,33 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:f>'08-20-short-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$C$21:$C$24</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.7882263333333301</c:v>
+              <c:f>'08-20-short-ok'!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.78822633333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.28570766666666</c:v>
@@ -3456,7 +3484,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'07-20-short-ok'!$A$26</c:f>
+              <c:f>'08-20-short-ok'!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3470,42 +3498,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$B$29:$B$32</c:f>
+              <c:f>'08-20-short-ok'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'07-20-short-ok'!$C$25:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.5666386666666599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.1014853333333301</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.594139333333301</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.481283333333302</c:v>
+              <c:f>'08-20-short-ok'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.56663866666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.10148533333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.5941393333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.4812833333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3520,12 +3548,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="360317192"/>
-        <c:axId val="360321504"/>
+        <c:axId val="2111069800"/>
+        <c:axId val="2111066600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="360317192"/>
+        <c:axId val="2111069800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3535,7 +3564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="360321504"/>
+        <c:crossAx val="2111066600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3543,18 +3572,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="360321504"/>
+        <c:axId val="2111066600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="360317192"/>
+        <c:crossAx val="2111069800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3570,7 +3599,909 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09-22-50x-faltaTRT'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZigZagOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.721393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.608297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.445948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.689918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09-22-50x-faltaTRT'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NotSoNaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.25353766666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.48059033333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.561703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.8360826666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09-22-50x-faltaTRT'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.34874933333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.724722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.36858233333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.6480056666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09-22-50x-faltaTRT'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZigZagOverNaiveMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.323402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.85926366666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.51354933333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.2543176666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09-22-50x-faltaTRT'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNaiveMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.42682</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.722655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.35156433333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.2484706666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09-22-50x-faltaTRT'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.78822633333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.28570766666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0337346666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.8848633333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09-22-50x-faltaTRT'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.56663866666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.10148533333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.5941393333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.4812833333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09-22-50x-faltaTRT'!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AntiTSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$C$29:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.897711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.053749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.271979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.771024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2121943480"/>
+        <c:axId val="2121946504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2121943480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121946504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2121946504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121943480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09-22-50x-faltaTRT'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZigZagOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.721393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.608297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.445948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.689918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09-22-50x-faltaTRT'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NotSoNaiveOrderedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.25353766666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.48059033333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.561703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.8360826666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09-22-50x-faltaTRT'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KingstonImprovedOverNSNMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.78822633333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.28570766666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0337346666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.8848633333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09-22-50x-faltaTRT'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSPbasedMobility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09-22-50x-faltaTRT'!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.56663866666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.10148533333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.5941393333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.4812833333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2121982488"/>
+        <c:axId val="2121985640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2121982488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121985640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2121985640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121982488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3620,16 +4551,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3641,16 +4572,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.7353134374999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9621244999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.2997838749999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.464073687500001</c:v>
+                  <c:v>2.7353134375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9621245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.299783875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.4640736875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3681,16 +4612,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3702,16 +4633,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3424566250000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6204799374999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0589960000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.802360562500001</c:v>
+                  <c:v>2.342456625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6204799375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.058996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.8023605625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3742,16 +4673,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3763,16 +4694,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3163225624999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5181463124999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.3066943124999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.561873437499999</c:v>
+                  <c:v>2.3163225625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5181463125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3066943125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.5618734375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3787,12 +4718,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="353385448"/>
-        <c:axId val="353385840"/>
+        <c:axId val="2106785992"/>
+        <c:axId val="2106783000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="353385448"/>
+        <c:axId val="2106785992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3802,7 +4734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353385840"/>
+        <c:crossAx val="2106783000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3810,7 +4742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353385840"/>
+        <c:axId val="2106783000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,7 +4753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353385448"/>
+        <c:crossAx val="2106785992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3836,7 +4768,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3895,16 +4827,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.1296400000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2696733333333299</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4918466666666603</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.611283333333301</c:v>
+                  <c:v>3.12964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.26967333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.49184666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.6112833333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3944,16 +4876,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.4198633333333301</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.7050066666666597</c:v>
+                  <c:v>3.41986333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.70500666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.3276666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.906806666666601</c:v>
+                  <c:v>25.9068066666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3993,16 +4925,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.7351766666666602</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2128166666666598</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.431536666666601</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.912336666666601</c:v>
+                  <c:v>3.73517666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.21281666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.4315366666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.9123366666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4085,12 +5017,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="353384664"/>
-        <c:axId val="353386624"/>
+        <c:axId val="2106729352"/>
+        <c:axId val="2106726280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="353384664"/>
+        <c:axId val="2106729352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4100,7 +5033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353386624"/>
+        <c:crossAx val="2106726280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4108,7 +5041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353386624"/>
+        <c:axId val="2106726280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4119,7 +5052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353384664"/>
+        <c:crossAx val="2106729352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4134,7 +5067,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4184,16 +5117,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4205,16 +5138,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.1296400000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2696733333333299</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4918466666666603</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.611283333333301</c:v>
+                  <c:v>3.12964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.26967333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.49184666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.6112833333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4245,16 +5178,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4266,16 +5199,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.7351766666666602</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2128166666666598</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.431536666666601</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.912336666666601</c:v>
+                  <c:v>3.73517666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.21281666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.4315366666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.9123366666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4306,16 +5239,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4327,16 +5260,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.4198633333333301</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.7050066666666597</c:v>
+                  <c:v>3.41986333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.70500666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.3276666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.906806666666601</c:v>
+                  <c:v>25.9068066666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4351,12 +5284,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="284850904"/>
-        <c:axId val="284849728"/>
+        <c:axId val="2106694824"/>
+        <c:axId val="2106691832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="284850904"/>
+        <c:axId val="2106694824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4366,7 +5300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284849728"/>
+        <c:crossAx val="2106691832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4374,7 +5308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284849728"/>
+        <c:axId val="2106691832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4385,7 +5319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284850904"/>
+        <c:crossAx val="2106694824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4400,7 +5334,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4450,16 +5384,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4468,19 +5402,19 @@
             <c:numRef>
               <c:f>'03data-beta'!$C$1:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.3263669999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4151439999999997</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.326367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.415144</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.568044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.236509999999999</c:v>
+                  <c:v>28.23651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4511,16 +5445,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4529,19 +5463,19 @@
             <c:numRef>
               <c:f>'03data-beta'!$C$9:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.558494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2185509999999997</c:v>
+                  <c:v>7.218551</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14.108468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.444289000000001</c:v>
+                  <c:v>29.444289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4572,16 +5506,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4590,19 +5524,19 @@
             <c:numRef>
               <c:f>'03data-beta'!$C$5:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.1313710000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4706700000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.624523999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.825341000000002</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.131371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.47067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.624524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.825341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4617,12 +5551,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="284851296"/>
-        <c:axId val="284852472"/>
+        <c:axId val="2106652168"/>
+        <c:axId val="2106649112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="284851296"/>
+        <c:axId val="2106652168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4632,7 +5567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284852472"/>
+        <c:crossAx val="2106649112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4640,18 +5575,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284852472"/>
+        <c:axId val="2106649112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284851296"/>
+        <c:crossAx val="2106652168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4666,7 +5601,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4716,16 +5651,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4734,10 +5669,10 @@
             <c:numRef>
               <c:f>'04data-beta'!$C$1:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.1504282926829199</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.15042829268292</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.83115121951219</c:v>
@@ -4777,16 +5712,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4795,19 +5730,19 @@
             <c:numRef>
               <c:f>'04data-beta'!$C$9:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.6150519999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.8978109999999999</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.615052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.897811</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.823088</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.028618999999999</c:v>
+                  <c:v>28.028619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4838,16 +5773,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4856,16 +5791,16 @@
             <c:numRef>
               <c:f>'04data-beta'!$C$5:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.1831749999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2936189999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.641666000000001</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.183175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.293619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.641666</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25.613135</c:v>
@@ -4899,16 +5834,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4917,19 +5852,19 @@
             <c:numRef>
               <c:f>'04data-beta'!$C$13:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.247444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6939229999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5351410000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.742145000000001</c:v>
+                  <c:v>2.693923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.535141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.742145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4944,12 +5879,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="284848552"/>
-        <c:axId val="284849336"/>
+        <c:axId val="2106604120"/>
+        <c:axId val="2106600920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="284848552"/>
+        <c:axId val="2106604120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4959,7 +5895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284849336"/>
+        <c:crossAx val="2106600920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4967,18 +5903,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284849336"/>
+        <c:axId val="2106600920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284848552"/>
+        <c:crossAx val="2106604120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4993,7 +5929,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5043,16 +5979,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5061,19 +5997,19 @@
             <c:numRef>
               <c:f>'05Todos-25-erroColeta'!$C$1:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>14.3111690434782</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.202184347826002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>79.596724521739105</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>246.75211513043399</c:v>
+                  <c:v>21.202184347826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.5967245217391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246.752115130434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5104,16 +6040,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5122,19 +6058,19 @@
             <c:numRef>
               <c:f>'05Todos-25-erroColeta'!$C$9:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>12.438490689655101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.237073448275801</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49.303404827586199</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98.815744137931006</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.4384906896551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.2370734482758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.3034048275862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.81574413793101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5165,16 +6101,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5183,7 +6119,7 @@
             <c:numRef>
               <c:f>'05Todos-25-erroColeta'!$C$5:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6.02996206896551</c:v>
@@ -5192,10 +6128,10 @@
                   <c:v>12.1768427586206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.878019655172402</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.484890344827498</c:v>
+                  <c:v>24.8780196551724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.4848903448275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5226,16 +6162,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5244,19 +6180,19 @@
             <c:numRef>
               <c:f>'05Todos-25-erroColeta'!$C$13:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.9947992920353901</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.815598230088399</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.080592920353901</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48.507346548672501</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.99479929203539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.8155982300884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.0805929203539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.5073465486725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5287,16 +6223,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5305,7 +6241,7 @@
             <c:numRef>
               <c:f>'05Todos-25-erroColeta'!$C$17:$C$20</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.13002433333333</c:v>
@@ -5317,7 +6253,7 @@
                   <c:v>4.45380166666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7995079999999994</c:v>
+                  <c:v>8.799508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5348,16 +6284,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5366,7 +6302,7 @@
             <c:numRef>
               <c:f>'05Todos-25-erroColeta'!$C$21:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.40142533333333</c:v>
@@ -5378,7 +6314,7 @@
                   <c:v>12.6985676666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.191064666666598</c:v>
+                  <c:v>25.1910646666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5393,12 +6329,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128625984"/>
-        <c:axId val="284854040"/>
+        <c:axId val="2113329624"/>
+        <c:axId val="2113332824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128625984"/>
+        <c:axId val="2113329624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5408,7 +6345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284854040"/>
+        <c:crossAx val="2113332824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5416,18 +6353,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284854040"/>
+        <c:axId val="2113332824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128625984"/>
+        <c:crossAx val="2113329624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5442,7 +6379,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5492,16 +6429,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5510,19 +6447,19 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$1:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.3579616666666601</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4369066666666601</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.35796166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.43690666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.276859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.472502333333299</c:v>
+                  <c:v>25.4725023333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5553,16 +6490,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5571,13 +6508,13 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$9:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.9279139999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.6482619999999999</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.927914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.648262</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.77422</c:v>
@@ -5614,16 +6551,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5632,19 +6569,19 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$5:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0773763333333299</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2095893333333301</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2870520000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.0904886666666602</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.07737633333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.20958933333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.287052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.09048866666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5675,16 +6612,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5693,19 +6630,19 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$13:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0829880000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2291346666666598</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3928580000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.8233436666666591</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.082988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.22913466666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.392858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.82334366666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5736,16 +6673,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5754,7 +6691,7 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$17:$C$20</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.069415</c:v>
@@ -5763,10 +6700,10 @@
                   <c:v>2.30083233333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5850629999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.6082986666666592</c:v>
+                  <c:v>4.585063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.608298666666659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5797,16 +6734,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5815,19 +6752,19 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$21:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.388118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1935556666666596</c:v>
+                  <c:v>6.19355566666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.9538006666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.358208333333302</c:v>
+                  <c:v>25.3582083333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5858,16 +6795,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5876,7 +6813,7 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$25:$C$28</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.24429533333333</c:v>
@@ -5885,10 +6822,10 @@
                   <c:v>6.506488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.427799333333301</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.146670333333301</c:v>
+                  <c:v>13.4277993333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.1466703333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5919,16 +6856,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5937,10 +6874,10 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$29:$C$32</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.89771100000000004</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.897711</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.053749</c:v>
@@ -5949,7 +6886,7 @@
                   <c:v>1.271979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7710239999999999</c:v>
+                  <c:v>1.771024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5964,12 +6901,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355150600"/>
-        <c:axId val="355145112"/>
+        <c:axId val="2113394408"/>
+        <c:axId val="2113397432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355150600"/>
+        <c:axId val="2113394408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5979,7 +6917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355145112"/>
+        <c:crossAx val="2113397432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5987,18 +6925,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355145112"/>
+        <c:axId val="2113397432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355150600"/>
+        <c:crossAx val="2113394408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6013,7 +6951,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6063,16 +7001,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6081,19 +7019,19 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$1:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.3579616666666601</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4369066666666601</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.35796166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.43690666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.276859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.472502333333299</c:v>
+                  <c:v>25.4725023333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6124,16 +7062,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6142,13 +7080,13 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$9:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.9279139999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.6482619999999999</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.927914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.648262</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.77422</c:v>
@@ -6185,16 +7123,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6203,19 +7141,19 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$21:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.388118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1935556666666596</c:v>
+                  <c:v>6.19355566666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.9538006666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.358208333333302</c:v>
+                  <c:v>25.3582083333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6246,16 +7184,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6264,7 +7202,7 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$25:$C$28</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.24429533333333</c:v>
@@ -6273,10 +7211,10 @@
                   <c:v>6.506488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.427799333333301</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.146670333333301</c:v>
+                  <c:v>13.4277993333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.1466703333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6307,16 +7245,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6325,10 +7263,10 @@
             <c:numRef>
               <c:f>'05Todos-25-duvida'!$C$29:$C$32</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.89771100000000004</c:v>
+                <c:formatCode>#.##00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.897711</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.053749</c:v>
@@ -6337,7 +7275,7 @@
                   <c:v>1.271979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7710239999999999</c:v>
+                  <c:v>1.771024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6352,12 +7290,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355143544"/>
-        <c:axId val="355145896"/>
+        <c:axId val="2113433784"/>
+        <c:axId val="2113436904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355143544"/>
+        <c:axId val="2113433784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6367,7 +7306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355145896"/>
+        <c:crossAx val="2113436904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6375,18 +7314,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355145896"/>
+        <c:axId val="2113436904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#.##00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355143544"/>
+        <c:crossAx val="2113433784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6401,7 +7340,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6451,6 +7390,75 @@
       <xdr:colOff>463550</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>406399</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7258,14 +8266,14 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -7276,7 +8284,7 @@
         <v>2.7353134374999999</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7287,7 +8295,7 @@
         <v>4.9621244999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7298,7 +8306,7 @@
         <v>9.2997838749999993</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7309,7 +8317,7 @@
         <v>17.464073687500001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7320,7 +8328,7 @@
         <v>0.13997256250000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7331,7 +8339,7 @@
         <v>0.3039356875</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7342,7 +8350,7 @@
         <v>0.55875531249999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7353,7 +8361,7 @@
         <v>0.90555275000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7364,7 +8372,7 @@
         <v>2.3424566250000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -7375,7 +8383,7 @@
         <v>4.6204799374999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -7386,7 +8394,7 @@
         <v>9.0589960000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -7397,7 +8405,7 @@
         <v>13.802360562500001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -7408,7 +8416,7 @@
         <v>2.3163225624999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -7419,7 +8427,7 @@
         <v>4.5181463124999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -7430,7 +8438,7 @@
         <v>9.3066943124999995</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -7441,7 +8449,7 @@
         <v>13.561873437499999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -7452,7 +8460,7 @@
         <v>1.2703341875</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -7463,7 +8471,7 @@
         <v>1.3185009375000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -7474,7 +8482,7 @@
         <v>1.4203116874999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -7485,37 +8493,37 @@
         <v>1.4948811875000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -7523,6 +8531,465 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15">
+        <v>3.721393</v>
+      </c>
+      <c r="E1" s="7">
+        <v>42621</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15">
+        <v>7.6082970000000003</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15">
+        <v>15.445948</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15">
+        <v>28.689917999999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1.34874933333333</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45">
+      <c r="A6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2.7247219999999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5.3685823333333298</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
+        <v>10.648005666666601</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15">
+        <v>3.2535376666666602</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="11">
+        <v>4</v>
+      </c>
+      <c r="C10" s="15">
+        <v>6.4805903333333301</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15">
+        <v>12.561703</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="11">
+        <v>16</v>
+      </c>
+      <c r="C12" s="15">
+        <v>25.836082666666599</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1.323402</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2.85926366666666</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="11">
+        <v>8</v>
+      </c>
+      <c r="C15" s="15">
+        <v>5.5135493333333301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="11">
+        <v>16</v>
+      </c>
+      <c r="C16" s="15">
+        <v>11.2543176666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1.42682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="11">
+        <v>4</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2.722655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="11">
+        <v>8</v>
+      </c>
+      <c r="C19" s="15">
+        <v>5.3515643333333296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="11">
+        <v>16</v>
+      </c>
+      <c r="C20" s="15">
+        <v>11.2484706666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15">
+        <v>3.7882263333333301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="11">
+        <v>4</v>
+      </c>
+      <c r="C22" s="15">
+        <v>7.28570766666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="11">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15">
+        <v>14.0337346666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="11">
+        <v>16</v>
+      </c>
+      <c r="C24" s="15">
+        <v>29.8848633333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2</v>
+      </c>
+      <c r="C25" s="15">
+        <v>3.5666386666666599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="11">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15">
+        <v>7.1014853333333301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="11">
+        <v>8</v>
+      </c>
+      <c r="C27" s="15">
+        <v>14.594139333333301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="11">
+        <v>16</v>
+      </c>
+      <c r="C28" s="15">
+        <v>27.481283333333302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.89771100000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="11">
+        <v>4</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.053749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="11">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.271979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="11">
+        <v>16</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1.7710239999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="C37" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7540,14 +9007,14 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -7558,7 +9025,7 @@
         <v>3.1296400000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7569,7 +9036,7 @@
         <v>6.2696733333333299</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7580,7 +9047,7 @@
         <v>8.4918466666666603</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7591,7 +9058,7 @@
         <v>24.611283333333301</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -7602,7 +9069,7 @@
         <v>3.4198633333333301</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7613,7 +9080,7 @@
         <v>6.7050066666666597</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -7624,7 +9091,7 @@
         <v>14.3276666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7635,7 +9102,7 @@
         <v>25.906806666666601</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -7646,7 +9113,7 @@
         <v>3.7351766666666602</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7657,7 +9124,7 @@
         <v>7.2128166666666598</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -7668,7 +9135,7 @@
         <v>13.431536666666601</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -7679,17 +9146,17 @@
         <v>27.912336666666601</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -7697,37 +9164,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -7752,14 +9219,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="4.875" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -7770,7 +9237,7 @@
         <v>3.3263669999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7781,7 +9248,7 @@
         <v>6.4151439999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7792,7 +9259,7 @@
         <v>12.568044</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7803,7 +9270,7 @@
         <v>28.236509999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -7814,7 +9281,7 @@
         <v>3.1313710000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -7825,7 +9292,7 @@
         <v>6.4706700000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -7836,7 +9303,7 @@
         <v>12.624523999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -7847,7 +9314,7 @@
         <v>23.825341000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -7858,7 +9325,7 @@
         <v>3.558494</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7869,7 +9336,7 @@
         <v>7.2185509999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -7880,7 +9347,7 @@
         <v>14.108468</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -7891,17 +9358,17 @@
         <v>29.444289000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -7909,37 +9376,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -7962,14 +9429,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="2" width="4.875" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -7980,7 +9447,7 @@
         <v>3.1504282926829199</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -7991,7 +9458,7 @@
         <v>6.83115121951219</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -8002,7 +9469,7 @@
         <v>12.3326565853658</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -8013,7 +9480,7 @@
         <v>26.3928780487804</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -8024,7 +9491,7 @@
         <v>3.1831749999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -8035,7 +9502,7 @@
         <v>6.2936189999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -8046,7 +9513,7 @@
         <v>12.641666000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -8057,7 +9524,7 @@
         <v>25.613135</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -8068,7 +9535,7 @@
         <v>3.6150519999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -8079,7 +9546,7 @@
         <v>6.8978109999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -8090,7 +9557,7 @@
         <v>13.823088</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -8101,7 +9568,7 @@
         <v>28.028618999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -8112,7 +9579,7 @@
         <v>1.247444</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -8123,7 +9590,7 @@
         <v>2.6939229999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -8134,7 +9601,7 @@
         <v>5.5351410000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -8145,17 +9612,17 @@
         <v>10.742145000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -8163,37 +9630,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -8218,17 +9685,17 @@
       <selection activeCell="C17" sqref="C17:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="2" width="4.875" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="0.625" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -8243,7 +9710,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -8260,7 +9727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -8277,7 +9744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -8292,7 +9759,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -8304,7 +9771,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8319,7 +9786,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -8334,7 +9801,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8346,7 +9813,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -8361,7 +9828,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -8376,7 +9843,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -8388,7 +9855,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -8400,7 +9867,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -8415,7 +9882,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -8430,7 +9897,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -8441,7 +9908,7 @@
         <v>29.080592920353901</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -8452,7 +9919,7 @@
         <v>48.507346548672501</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -8463,7 +9930,7 @@
         <v>1.13002433333333</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -8474,7 +9941,7 @@
         <v>2.17416866666666</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -8485,7 +9952,7 @@
         <v>4.45380166666666</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -8496,7 +9963,7 @@
         <v>8.7995079999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -8507,7 +9974,7 @@
         <v>3.40142533333333</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -8518,7 +9985,7 @@
         <v>6.41014033333333</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -8529,7 +9996,7 @@
         <v>12.6985676666666</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -8560,17 +10027,17 @@
       <selection activeCell="Z116" sqref="Z116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="2" width="4.875" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="0.625" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -8585,7 +10052,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -8602,7 +10069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -8619,7 +10086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -8634,7 +10101,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -8651,7 +10118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8666,7 +10133,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -8681,7 +10148,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8693,7 +10160,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -8708,7 +10175,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -8723,7 +10190,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -8735,7 +10202,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -8747,7 +10214,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -8762,7 +10229,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -8777,7 +10244,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -8788,7 +10255,7 @@
         <v>4.3928580000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -8799,7 +10266,7 @@
         <v>8.8233436666666591</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -8810,7 +10277,7 @@
         <v>1.069415</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -8821,7 +10288,7 @@
         <v>2.30083233333333</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -8832,7 +10299,7 @@
         <v>4.5850629999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -8843,7 +10310,7 @@
         <v>9.6082986666666592</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -8854,7 +10321,7 @@
         <v>3.388118</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -8865,7 +10332,7 @@
         <v>6.1935556666666596</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -8876,7 +10343,7 @@
         <v>11.9538006666666</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -8887,7 +10354,7 @@
         <v>25.358208333333302</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
@@ -8898,7 +10365,7 @@
         <v>3.24429533333333</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
@@ -8909,7 +10376,7 @@
         <v>6.506488</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
@@ -8920,7 +10387,7 @@
         <v>13.427799333333301</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
@@ -8931,7 +10398,7 @@
         <v>26.146670333333301</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
@@ -8942,7 +10409,7 @@
         <v>0.89771100000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
@@ -8953,7 +10420,7 @@
         <v>1.053749</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
@@ -8964,7 +10431,7 @@
         <v>1.271979</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
@@ -8975,12 +10442,12 @@
         <v>1.7710239999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:1" ht="36">
       <c r="A39" s="10" t="s">
         <v>36</v>
       </c>
@@ -9001,21 +10468,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="D29" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="2" width="4.875" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="0.625" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -9030,7 +10497,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -9045,7 +10512,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -9062,7 +10529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -9077,7 +10544,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -9094,7 +10561,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:9" ht="46.5">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -9110,7 +10577,7 @@
       <c r="G6" s="2"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -9125,7 +10592,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -9137,7 +10604,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -9152,7 +10619,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
@@ -9167,7 +10634,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
@@ -9179,7 +10646,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
@@ -9191,7 +10658,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
@@ -9208,7 +10675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
         <v>30</v>
       </c>
@@ -9223,7 +10690,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
@@ -9234,7 +10701,7 @@
         <v>5.5187836666666596</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
@@ -9245,7 +10712,7 @@
         <v>10.713177666666599</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
@@ -9256,7 +10723,7 @@
         <v>1.34103833333333</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
@@ -9267,7 +10734,7 @@
         <v>2.7439516666666601</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="11" t="s">
         <v>33</v>
       </c>
@@ -9278,7 +10745,7 @@
         <v>5.4731543333333299</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="11" t="s">
         <v>33</v>
       </c>
@@ -9289,7 +10756,7 @@
         <v>10.880717000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="11" t="s">
         <v>34</v>
       </c>
@@ -9300,7 +10767,7 @@
         <v>3.8698676666666598</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="11" t="s">
         <v>34</v>
       </c>
@@ -9311,7 +10778,7 @@
         <v>7.7177949999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="11" t="s">
         <v>34</v>
       </c>
@@ -9322,7 +10789,7 @@
         <v>14.552009</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="11" t="s">
         <v>34</v>
       </c>
@@ -9333,7 +10800,7 @@
         <v>29.5361366666666</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -9344,7 +10811,7 @@
         <v>3.6715855737704901</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="11" t="s">
         <v>8</v>
       </c>
@@ -9355,7 +10822,7 @@
         <v>6.9675475409835999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
         <v>8</v>
       </c>
@@ -9366,7 +10833,7 @@
         <v>14.089033770491801</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
         <v>8</v>
       </c>
@@ -9377,7 +10844,7 @@
         <v>27.506016721311401</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
@@ -9388,7 +10855,7 @@
         <v>0.89771100000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="11" t="s">
         <v>9</v>
       </c>
@@ -9399,7 +10866,7 @@
         <v>1.053749</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="11" t="s">
         <v>9</v>
       </c>
@@ -9410,7 +10877,7 @@
         <v>1.271979</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="11" t="s">
         <v>9</v>
       </c>
@@ -9421,33 +10888,33 @@
         <v>1.7710239999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="12"/>
       <c r="B34" s="11"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="C37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9460,21 +10927,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:A28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="2" width="4.875" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
-    <col min="6" max="6" width="0.625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -9489,7 +10956,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -9504,7 +10971,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -9521,7 +10988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -9536,7 +11003,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -9553,7 +11020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:9" ht="46.5">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -9569,7 +11036,7 @@
       <c r="G6" s="2"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -9584,7 +11051,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -9596,7 +11063,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -9611,7 +11078,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
@@ -9626,7 +11093,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
@@ -9638,7 +11105,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
@@ -9650,7 +11117,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
@@ -9667,7 +11134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
         <v>30</v>
       </c>
@@ -9682,7 +11149,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
@@ -9693,7 +11160,7 @@
         <v>5.4504113333333297</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
@@ -9704,7 +11171,7 @@
         <v>11.104093333333299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
@@ -9715,7 +11182,7 @@
         <v>1.4397473333333299</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
@@ -9726,7 +11193,7 @@
         <v>2.7042643333333301</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="11" t="s">
         <v>33</v>
       </c>
@@ -9737,7 +11204,7 @@
         <v>5.8090066666666598</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="11" t="s">
         <v>33</v>
       </c>
@@ -9748,7 +11215,7 @@
         <v>11.0622593333333</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="11" t="s">
         <v>34</v>
       </c>
@@ -9759,7 +11226,7 @@
         <v>3.7738019999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="11" t="s">
         <v>34</v>
       </c>
@@ -9770,7 +11237,7 @@
         <v>7.0592819999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="11" t="s">
         <v>34</v>
       </c>
@@ -9781,7 +11248,7 @@
         <v>14.3497583333333</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="11" t="s">
         <v>34</v>
       </c>
@@ -9792,7 +11259,7 @@
         <v>30.266522333333299</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -9803,7 +11270,7 @@
         <v>3.9984203174603099</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="11" t="s">
         <v>8</v>
       </c>
@@ -9814,7 +11281,7 @@
         <v>6.7311028571428499</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
         <v>8</v>
       </c>
@@ -9825,7 +11292,7 @@
         <v>13.3958952380952</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
         <v>8</v>
       </c>
@@ -9836,7 +11303,7 @@
         <v>27.696225396825302</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
@@ -9847,7 +11314,7 @@
         <v>0.89771100000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="11" t="s">
         <v>9</v>
       </c>
@@ -9858,7 +11325,7 @@
         <v>1.053749</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="11" t="s">
         <v>9</v>
       </c>
@@ -9869,7 +11336,7 @@
         <v>1.271979</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="11" t="s">
         <v>9</v>
       </c>
@@ -9880,33 +11347,38 @@
         <v>1.7710239999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="12"/>
       <c r="B34" s="11"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="C37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9914,21 +11386,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="F111" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="F111" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="Y105" sqref="Y105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="2" width="4.875" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
-    <col min="6" max="6" width="0.625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -9943,7 +11415,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -9958,7 +11430,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -9975,7 +11447,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -9990,7 +11462,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -10007,7 +11479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:9" ht="46.5">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -10023,7 +11495,7 @@
       <c r="G6" s="2"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -10038,7 +11510,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -10050,7 +11522,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -10065,7 +11537,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
@@ -10080,7 +11552,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
@@ -10092,7 +11564,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
@@ -10104,7 +11576,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
@@ -10121,7 +11593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
         <v>30</v>
       </c>
@@ -10136,7 +11608,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
@@ -10147,7 +11619,7 @@
         <v>5.5135493333333301</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
@@ -10158,7 +11630,7 @@
         <v>11.2543176666666</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
@@ -10169,7 +11641,7 @@
         <v>1.42682</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
@@ -10180,7 +11652,7 @@
         <v>2.722655</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="11" t="s">
         <v>33</v>
       </c>
@@ -10191,7 +11663,7 @@
         <v>5.3515643333333296</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="11" t="s">
         <v>33</v>
       </c>
@@ -10202,7 +11674,7 @@
         <v>11.2484706666666</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="11" t="s">
         <v>34</v>
       </c>
@@ -10213,7 +11685,7 @@
         <v>3.7882263333333301</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="11" t="s">
         <v>34</v>
       </c>
@@ -10224,7 +11696,7 @@
         <v>7.28570766666666</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="11" t="s">
         <v>34</v>
       </c>
@@ -10235,7 +11707,7 @@
         <v>14.0337346666666</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="11" t="s">
         <v>34</v>
       </c>
@@ -10246,7 +11718,7 @@
         <v>29.8848633333333</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -10257,7 +11729,7 @@
         <v>3.5666386666666599</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="11" t="s">
         <v>8</v>
       </c>
@@ -10268,7 +11740,7 @@
         <v>7.1014853333333301</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
         <v>8</v>
       </c>
@@ -10279,7 +11751,7 @@
         <v>14.594139333333301</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
         <v>8</v>
       </c>
@@ -10290,7 +11762,7 @@
         <v>27.481283333333302</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
@@ -10301,7 +11773,7 @@
         <v>0.89771100000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="11" t="s">
         <v>9</v>
       </c>
@@ -10312,7 +11784,7 @@
         <v>1.053749</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="11" t="s">
         <v>9</v>
       </c>
@@ -10323,7 +11795,7 @@
         <v>1.271979</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="11" t="s">
         <v>9</v>
       </c>
@@ -10334,32 +11806,37 @@
         <v>1.7710239999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="12"/>
       <c r="B34" s="11"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="C37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/linuxRunners/some results.xlsx
+++ b/linuxRunners/some results.xlsx
@@ -16,7 +16,7 @@
     <sheet name="06-20-long-ok" sheetId="9" r:id="rId7"/>
     <sheet name="07-20-mid-ok" sheetId="10" r:id="rId8"/>
     <sheet name="08-20-short-ok" sheetId="11" r:id="rId9"/>
-    <sheet name="09-22-50x-faltaTRT" sheetId="12" r:id="rId10"/>
+    <sheet name="09-24-50x-faltaTUDO" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -189,7 +189,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
@@ -846,11 +845,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111739240"/>
-        <c:axId val="2111742344"/>
+        <c:axId val="2140118232"/>
+        <c:axId val="2140121288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111739240"/>
+        <c:axId val="2140118232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111742344"/>
+        <c:crossAx val="2140121288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -868,7 +867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111742344"/>
+        <c:axId val="2140121288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111739240"/>
+        <c:crossAx val="2140118232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1418,11 +1417,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113500184"/>
-        <c:axId val="2113503208"/>
+        <c:axId val="2140637640"/>
+        <c:axId val="2140640664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113500184"/>
+        <c:axId val="2140637640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113503208"/>
+        <c:crossAx val="2140640664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1440,7 +1439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113503208"/>
+        <c:axId val="2140640664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,14 +1450,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113500184"/>
+        <c:crossAx val="2140637640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1747,11 +1745,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113534840"/>
-        <c:axId val="2113538024"/>
+        <c:axId val="2140672296"/>
+        <c:axId val="2140675480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113534840"/>
+        <c:axId val="2140672296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,7 +1759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113538024"/>
+        <c:crossAx val="2140675480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1769,7 +1767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113538024"/>
+        <c:axId val="2140675480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,14 +1778,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113534840"/>
+        <c:crossAx val="2140672296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2320,11 +2317,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113602344"/>
-        <c:axId val="2113605368"/>
+        <c:axId val="2140738616"/>
+        <c:axId val="2140741640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113602344"/>
+        <c:axId val="2140738616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2334,7 +2331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113605368"/>
+        <c:crossAx val="2140741640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2342,7 +2339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113605368"/>
+        <c:axId val="2140741640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2353,14 +2350,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113602344"/>
+        <c:crossAx val="2140738616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2649,11 +2645,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111177752"/>
-        <c:axId val="2111174552"/>
+        <c:axId val="2140773784"/>
+        <c:axId val="2140776968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111177752"/>
+        <c:axId val="2140773784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2663,7 +2659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111174552"/>
+        <c:crossAx val="2140776968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2671,7 +2667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111174552"/>
+        <c:axId val="2140776968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2682,14 +2678,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111177752"/>
+        <c:crossAx val="2140773784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3222,11 +3217,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111104360"/>
-        <c:axId val="2111101320"/>
+        <c:axId val="2140839880"/>
+        <c:axId val="2140842904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111104360"/>
+        <c:axId val="2140839880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3236,7 +3231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111101320"/>
+        <c:crossAx val="2140842904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3244,7 +3239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111101320"/>
+        <c:axId val="2140842904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3255,7 +3250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111104360"/>
+        <c:crossAx val="2140839880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3550,11 +3545,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111069800"/>
-        <c:axId val="2111066600"/>
+        <c:axId val="2140874472"/>
+        <c:axId val="2140877656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111069800"/>
+        <c:axId val="2140874472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3564,7 +3559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111066600"/>
+        <c:crossAx val="2140877656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3572,7 +3567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111066600"/>
+        <c:axId val="2140877656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3583,14 +3578,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111069800"/>
+        <c:crossAx val="2140874472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3630,7 +3624,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'09-22-50x-faltaTRT'!$A$1</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3644,7 +3638,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3665,7 +3659,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$C$1:$C$4</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$C$1:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3691,7 +3685,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'09-22-50x-faltaTRT'!$A$10</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3705,7 +3699,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3726,7 +3720,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$C$9:$C$12</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3752,7 +3746,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'09-22-50x-faltaTRT'!$A$5</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3766,7 +3760,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3787,7 +3781,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$C$5:$C$8</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3813,7 +3807,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'09-22-50x-faltaTRT'!$A$15</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3827,7 +3821,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3848,7 +3842,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$C$13:$C$16</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3874,7 +3868,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'09-22-50x-faltaTRT'!$A$17</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3888,7 +3882,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3909,7 +3903,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$C$17:$C$20</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$C$17:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3935,7 +3929,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'09-22-50x-faltaTRT'!$A$21</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3949,7 +3943,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3970,7 +3964,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$C$21:$C$24</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$C$21:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3996,7 +3990,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'09-22-50x-faltaTRT'!$A$26</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4010,7 +4004,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4031,7 +4025,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$C$25:$C$28</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$C$25:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4057,7 +4051,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'09-22-50x-faltaTRT'!$A$30</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4071,7 +4065,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4092,7 +4086,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$C$29:$C$32</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$C$29:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4123,11 +4117,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2121943480"/>
-        <c:axId val="2121946504"/>
+        <c:axId val="2140941064"/>
+        <c:axId val="2140944088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121943480"/>
+        <c:axId val="2140941064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4137,7 +4131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121946504"/>
+        <c:crossAx val="2140944088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4145,7 +4139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121946504"/>
+        <c:axId val="2140944088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4156,7 +4150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121943480"/>
+        <c:crossAx val="2140941064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4203,7 +4197,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'09-22-50x-faltaTRT'!$A$1</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4217,7 +4211,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4238,7 +4232,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$C$1:$C$4</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$C$1:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4264,7 +4258,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'09-22-50x-faltaTRT'!$A$10</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4278,7 +4272,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4299,7 +4293,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$C$9:$C$12</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$C$9:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4325,7 +4319,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'09-22-50x-faltaTRT'!$A$21</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4339,7 +4333,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4360,7 +4354,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$C$21:$C$24</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$C$21:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4386,7 +4380,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'09-22-50x-faltaTRT'!$A$26</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4400,7 +4394,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$B$29:$B$32</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$B$29:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4421,7 +4415,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-22-50x-faltaTRT'!$C$25:$C$28</c:f>
+              <c:f>'09-24-50x-faltaTUDO'!$C$25:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>#.##00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4452,11 +4446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2121982488"/>
-        <c:axId val="2121985640"/>
+        <c:axId val="2140975656"/>
+        <c:axId val="2140978840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121982488"/>
+        <c:axId val="2140975656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4466,7 +4460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121985640"/>
+        <c:crossAx val="2140978840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4474,7 +4468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121985640"/>
+        <c:axId val="2140978840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4485,14 +4479,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121982488"/>
+        <c:crossAx val="2140975656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4720,11 +4713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106785992"/>
-        <c:axId val="2106783000"/>
+        <c:axId val="2135155992"/>
+        <c:axId val="2135153000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106785992"/>
+        <c:axId val="2135155992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4734,7 +4727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106783000"/>
+        <c:crossAx val="2135153000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4742,7 +4735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106783000"/>
+        <c:axId val="2135153000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4753,7 +4746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106785992"/>
+        <c:crossAx val="2135155992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5019,11 +5012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106729352"/>
-        <c:axId val="2106726280"/>
+        <c:axId val="2137321432"/>
+        <c:axId val="2137318360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106729352"/>
+        <c:axId val="2137321432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5033,7 +5026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106726280"/>
+        <c:crossAx val="2137318360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5041,7 +5034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106726280"/>
+        <c:axId val="2137318360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5052,7 +5045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106729352"/>
+        <c:crossAx val="2137321432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5286,11 +5279,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106694824"/>
-        <c:axId val="2106691832"/>
+        <c:axId val="2137286904"/>
+        <c:axId val="2137283912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106694824"/>
+        <c:axId val="2137286904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5300,7 +5293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106691832"/>
+        <c:crossAx val="2137283912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5308,7 +5301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106691832"/>
+        <c:axId val="2137283912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5319,7 +5312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106694824"/>
+        <c:crossAx val="2137286904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5553,11 +5546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106652168"/>
-        <c:axId val="2106649112"/>
+        <c:axId val="2137244248"/>
+        <c:axId val="2137241192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106652168"/>
+        <c:axId val="2137244248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5567,7 +5560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106649112"/>
+        <c:crossAx val="2137241192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5575,7 +5568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106649112"/>
+        <c:axId val="2137241192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5586,7 +5579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106652168"/>
+        <c:crossAx val="2137244248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5881,11 +5874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106604120"/>
-        <c:axId val="2106600920"/>
+        <c:axId val="2137196136"/>
+        <c:axId val="2137192936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106604120"/>
+        <c:axId val="2137196136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5895,7 +5888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106600920"/>
+        <c:crossAx val="2137192936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5903,7 +5896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106600920"/>
+        <c:axId val="2137192936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5914,7 +5907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106604120"/>
+        <c:crossAx val="2137196136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6331,11 +6324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113329624"/>
-        <c:axId val="2113332824"/>
+        <c:axId val="2137137976"/>
+        <c:axId val="2137134760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113329624"/>
+        <c:axId val="2137137976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6345,7 +6338,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113332824"/>
+        <c:crossAx val="2137134760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6353,7 +6346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113332824"/>
+        <c:axId val="2137134760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6364,7 +6357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113329624"/>
+        <c:crossAx val="2137137976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6903,11 +6896,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113394408"/>
-        <c:axId val="2113397432"/>
+        <c:axId val="2137073192"/>
+        <c:axId val="2137070152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113394408"/>
+        <c:axId val="2137073192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6917,7 +6910,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113397432"/>
+        <c:crossAx val="2137070152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6925,7 +6918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113397432"/>
+        <c:axId val="2137070152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6936,7 +6929,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113394408"/>
+        <c:crossAx val="2137073192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7292,11 +7285,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113433784"/>
-        <c:axId val="2113436904"/>
+        <c:axId val="2137033368"/>
+        <c:axId val="2137030232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113433784"/>
+        <c:axId val="2137033368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7306,7 +7299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113436904"/>
+        <c:crossAx val="2137030232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7314,7 +7307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113436904"/>
+        <c:axId val="2137030232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7325,7 +7318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113433784"/>
+        <c:crossAx val="2137033368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8545,7 +8538,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10561,7 +10554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="46.5">
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -11020,7 +11013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="46.5">
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -11479,7 +11472,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="46.5">
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
